--- a/cartao_programa.xlsx
+++ b/cartao_programa.xlsx
@@ -431,12 +431,12 @@
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="36" customWidth="1" min="5" max="5"/>
-    <col width="31.2" customWidth="1" min="6" max="6"/>
+    <col width="22.8" customWidth="1" min="5" max="5"/>
+    <col width="32.4" customWidth="1" min="6" max="6"/>
     <col width="15.6" customWidth="1" min="7" max="7"/>
     <col width="15.6" customWidth="1" min="8" max="8"/>
-    <col width="96" customWidth="1" min="9" max="9"/>
-    <col width="69.59999999999999" customWidth="1" min="10" max="10"/>
+    <col width="115.2" customWidth="1" min="9" max="9"/>
+    <col width="56.4" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -516,28 +516,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PRIMAVERA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MANGABAS</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.363415</v>
+        <v>-16.3640593</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.8844948</v>
+        <v>-46.9032095</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 0:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de ROUBO na região no Segunda às 0:00. Probabilidade: 0.49</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em PRIMAVERA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -561,28 +561,28 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LOTEAMENTO RIO PRETO</t>
+          <t>BARROCA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CAPITAO CARLOS GONZAGA</t>
+          <t>PRESIDENTE CASTELO BRANCO</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.3512835</v>
+        <v>-16.3701057</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.8936546</v>
+        <v>-46.9017296</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 1:00. Probabilidade: 0.84</t>
+          <t>Alta probabilidade de ROUBO na região no Segunda às 1:00. Probabilidade: 0.36</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em LOTEAMENTO RIO PRETO</t>
+          <t>Patrulhamento preventivo em BARROCA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -606,28 +606,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>TERRA NOVA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CELINA LISBOA FREDERICO</t>
+          <t>CHICO CURRAL VELHO</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.3548499</v>
+        <v>-16.3386311</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.8862195</v>
+        <v>-46.9051241</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 2:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de ROUBO na região no Segunda às 2:00. Probabilidade: 0.51</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em TERRA NOVA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -651,28 +651,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FLORESTA</t>
+          <t>AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ANTONIO GONCALVES</t>
+          <t>PARDAIS</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.3637397</v>
+        <v>-16.3423364</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.8874251</v>
+        <v>-46.8956847</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 3:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Segunda às 3:00. Probabilidade: 0.35</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em FLORESTA</t>
+          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -696,28 +696,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>JACANA</t>
+          <t>PARDAIS</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.3751398</v>
+        <v>-16.3408439</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.8941875</v>
+        <v>-46.9019975</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 4:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Segunda às 4:00. Probabilidade: 0.36</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -741,28 +741,28 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>BARROCA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CELINA LISBOA FREDERICO</t>
+          <t>PRESIDENTE CASTELO BRANCO</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-16.3514486</v>
+        <v>-16.3701057</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.8911584</v>
+        <v>-46.9017296</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 5:00. Probabilidade: 0.84</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Segunda às 5:00. Probabilidade: 0.36</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em BARROCA</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -786,28 +786,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NOVA</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.352639</v>
+        <v>-16.3630222</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.89468</v>
+        <v>-46.8958547</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 6:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de ROUBO na região no Segunda às 6:00. Probabilidade: 0.52</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -831,28 +831,28 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>ITAPUA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SANTOS DUMONT</t>
+          <t>JOAO PINHEIRO</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-16.3715697</v>
+        <v>-16.3530837</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.8918</v>
+        <v>-46.9045346</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 7:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de ROUBO na região no Segunda às 7:00. Probabilidade: 0.54</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em ITAPUA</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -876,28 +876,28 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CAMELIAS</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.365617</v>
+        <v>-16.3578758</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.895048</v>
+        <v>-46.8977027</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 8:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de ROUBO na região no Segunda às 8:00. Probabilidade: 0.38</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -926,18 +926,18 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>VINTE E UM DE ABRIL</t>
+          <t>DJALMA TORRES</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.3497761</v>
+        <v>-16.3578758</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.8894537</v>
+        <v>-46.8967347</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 9:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de ROUBO na região no Segunda às 9:00. Probabilidade: 0.37</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -966,28 +966,28 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SERRA</t>
+          <t>AGUAS MARINHAS</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.352639</v>
+        <v>-16.3731448</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.8900997</v>
+        <v>-46.8996636</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 10:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de ROUBO na região no Segunda às 10:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1011,28 +1011,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>BARROCA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CASTRO ALVES</t>
+          <t>PRESIDENTE CASTELO BRANCO</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.3690893</v>
+        <v>-16.3701057</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.8939396</v>
+        <v>-46.9017296</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 11:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Segunda às 11:00. Probabilidade: 0.39</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em BARROCA</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1056,28 +1056,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PRIMAVERA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>JABOTICABAS</t>
+          <t>ALBA GONZAGA</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.3616052</v>
+        <v>-16.36506</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.8826729</v>
+        <v>-46.9012748</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 12:00. Probabilidade: 0.90</t>
+          <t>Alta probabilidade de ROUBO na região no Segunda às 12:00. Probabilidade: 0.46</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em PRIMAVERA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1101,28 +1101,28 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PRIMAVERA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MANGABAS</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.363415</v>
+        <v>-16.3580464</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.886863</v>
+        <v>-46.9039224</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 13:00. Probabilidade: 0.91</t>
+          <t>Alta probabilidade de ROUBO na região no Segunda às 13:00. Probabilidade: 0.45</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em PRIMAVERA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1146,28 +1146,28 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PARQUE RESIDENCIAL CANABRAVA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>JUPITER</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-16.35345</v>
+        <v>-16.3569267</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.8809017</v>
+        <v>-46.9039224</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 14:00. Probabilidade: 0.91</t>
+          <t>Alta probabilidade de ROUBO na região no Segunda às 14:00. Probabilidade: 0.44</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em PARQUE RESIDENCIAL CANABRAVA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1191,28 +1191,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO DOIS</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SAO JOAO</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.3724096</v>
+        <v>-16.3550978</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.9003549</v>
+        <v>-46.9012748</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 15:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de ROUBO na região no Segunda às 15:00. Probabilidade: 0.44</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1236,28 +1236,28 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CELINA LISBOA FREDERICO</t>
+          <t>BURITIS</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-16.3535449</v>
+        <v>-16.3580464</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.8937224</v>
+        <v>-46.8999924</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 16:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de ROUBO na região no Segunda às 16:00. Probabilidade: 0.43</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1281,28 +1281,28 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CANABRAVA</t>
+          <t>ALBA GONZAGA</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.3562869</v>
+        <v>-16.3629615</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.8941417</v>
+        <v>-46.9009258</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 17:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de ROUBO na região no Segunda às 17:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1326,28 +1326,28 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PATOS DE MINAS</t>
+          <t>PARDAIS</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.3634181</v>
+        <v>-16.3408439</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.8943756</v>
+        <v>-46.8956847</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 18:00. Probabilidade: 0.92</t>
+          <t>Alta probabilidade de HOMICIDIO na região no Segunda às 18:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1371,28 +1371,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO DOIS</t>
+          <t>TERRA NOVA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ARLINDO GOMES BRANQUINHO</t>
+          <t>CHICO CURRAL VELHO</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.376106</v>
+        <v>-16.3386311</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.8987845</v>
+        <v>-46.9051241</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 19:00. Probabilidade: 0.90</t>
+          <t>Alta probabilidade de ROUBO na região no Segunda às 19:00. Probabilidade: 0.54</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
+          <t>Patrulhamento preventivo em TERRA NOVA</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1421,18 +1421,18 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CELINA LISBOA FREDERICO</t>
+          <t>DJALMA TORRES</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.3563583</v>
+        <v>-16.3578758</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.8867717</v>
+        <v>-46.8967347</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 20:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Segunda às 20:00. Probabilidade: 0.41</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1461,28 +1461,28 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>VALE VERDE</t>
+          <t>CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>DULCE TORRES BROCHADO</t>
+          <t>AGUAS MARINHAS</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-16.356573</v>
+        <v>-16.3708733</v>
       </c>
       <c r="H23" t="n">
-        <v>-46.8844753</v>
+        <v>-46.900479</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 21:00. Probabilidade: 0.93</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Segunda às 21:00. Probabilidade: 0.41</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em VALE VERDE</t>
+          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1506,28 +1506,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA APARECIDA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PATOS DE MINAS</t>
+          <t>GERSON RODRIGUES GONDIM</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-16.3609719</v>
+        <v>-16.3580464</v>
       </c>
       <c r="H24" t="n">
-        <v>-46.8899401</v>
+        <v>-46.8999924</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 22:00. Probabilidade: 0.93</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Segunda às 22:00. Probabilidade: 0.40</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1551,28 +1551,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>LUIZ ALVES</t>
+          <t>PARDAIS</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-16.3562869</v>
+        <v>-16.3408439</v>
       </c>
       <c r="H25" t="n">
-        <v>-46.8871824</v>
+        <v>-46.9019975</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 23:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de HOMICIDIO na região no Segunda às 23:00. Probabilidade: 0.47</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1588,7 +1588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1600,12 +1600,12 @@
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="40.8" customWidth="1" min="5" max="5"/>
-    <col width="27.6" customWidth="1" min="6" max="6"/>
-    <col width="16.8" customWidth="1" min="7" max="7"/>
+    <col width="22.8" customWidth="1" min="5" max="5"/>
+    <col width="34.8" customWidth="1" min="6" max="6"/>
+    <col width="15.6" customWidth="1" min="7" max="7"/>
     <col width="15.6" customWidth="1" min="8" max="8"/>
-    <col width="93.59999999999999" customWidth="1" min="9" max="9"/>
-    <col width="74.39999999999999" customWidth="1" min="10" max="10"/>
+    <col width="112.8" customWidth="1" min="9" max="9"/>
+    <col width="56.4" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -1685,28 +1685,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>INVÁLIDO</t>
+          <t>AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DO AMANHECER</t>
+          <t>PARDAIS</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.3816358</v>
+        <v>-16.3408439</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.8962363</v>
+        <v>-46.8956847</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 0:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Terça às 0:00. Probabilidade: 0.32</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em INVÁLIDO</t>
+          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -1730,28 +1730,28 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>BARROCA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PATOS DE MINAS</t>
+          <t>PRESIDENTE CASTELO BRANCO</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.3657188</v>
+        <v>-16.3701057</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.8951912</v>
+        <v>-46.9017296</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 1:00. Probabilidade: 0.84</t>
+          <t>Alta probabilidade de ROUBO na região no Terça às 1:00. Probabilidade: 0.36</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em BARROCA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -1775,28 +1775,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO DOIS</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SAO JOAO</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.3724496</v>
+        <v>-16.3554598</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.9003549</v>
+        <v>-46.9032221</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 2:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de ROUBO na região no Terça às 2:00. Probabilidade: 0.48</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -1820,28 +1820,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ANTONIO BROCHADO</t>
+          <t>VIRGILIO JUSTINIANO RIBEIRO</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.3707784</v>
+        <v>-16.3569267</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.8893259</v>
+        <v>-46.9012748</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 3:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de ROUBO na região no Terça às 3:00. Probabilidade: 0.48</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA LUZIA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -1865,28 +1865,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>INVÁLIDO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO SOARES</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.3679913</v>
+        <v>-16.3578758</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.8820932</v>
+        <v>-46.8967347</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 4:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de ROUBO na região no Terça às 4:00. Probabilidade: 0.40</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em INVÁLIDO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -1910,28 +1910,28 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BELA VISTA</t>
+          <t>SANTA CLARA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DOM LUSTOSA</t>
+          <t>LEAO ROCHA</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-16.379917</v>
+        <v>-16.2889972</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.8860535</v>
+        <v>-46.9026617</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 5:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de ROUBO na região no Terça às 5:00. Probabilidade: 0.51</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em BELA VISTA</t>
+          <t>Patrulhamento preventivo em SANTA CLARA</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -1945,38 +1945,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>07:20</t>
+          <t>06:20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CANABRAVA</t>
+          <t>UNAI</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.3540215</v>
+        <v>-16.3423364</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8914578</v>
+        <v>-46.8956847</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 7:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Terça às 6:00. Probabilidade: 0.37</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -1990,38 +1990,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>08:20</t>
+          <t>07:20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NOVA</t>
+          <t>ALBA GONZAGA</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-16.3520424</v>
+        <v>-16.3629615</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.8914578</v>
+        <v>-46.9039224</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 8:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de ROUBO na região no Terça às 7:00. Probabilidade: 0.48</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -2035,38 +2035,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>08:20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>VALE VERDE</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DULCE TORRES BROCHADO</t>
+          <t>VIRGILIO JUSTINIANO RIBEIRO</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.3579989</v>
+        <v>-16.3550978</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.8873921</v>
+        <v>-46.8996242</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 10:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de ROUBO na região no Terça às 8:00. Probabilidade: 0.48</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em VALE VERDE</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -2080,38 +2080,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>VEREADOR JOAO NARCISO</t>
+          <t>ANTONIO FRANCISCO BARBOSA</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.3527278</v>
+        <v>-16.2954644</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.8947271</v>
+        <v>-46.9031705</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 11:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de ROUBO na região no Terça às 9:00. Probabilidade: 0.53</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -2125,38 +2125,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>EVA APARECIDA DA SILVA</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.3523291</v>
+        <v>-16.297578</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.8917217</v>
+        <v>-46.9018028</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 12:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de ROUBO na região no Terça às 10:00. Probabilidade: 0.53</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -2170,36 +2170,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v/>
+          <t>CAPIM BRANCO DOIS</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>SAO JOAO</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.3575054</v>
+        <v>-16.3731448</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.8908802</v>
+        <v>-46.900479</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 13:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de ROUBO na região no Terça às 11:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -2213,38 +2215,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NOVA REPUBLICA</t>
+          <t>EDUARDO RODRIGUES BARBOSA</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.3562869</v>
+        <v>-16.3554598</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.8874815</v>
+        <v>-46.901516</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 14:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de ROUBO na região no Terça às 12:00. Probabilidade: 0.46</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -2258,38 +2260,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SANTOS DUMONT</t>
+          <t>SABARA</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.3705837</v>
+        <v>-16.3665317</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.8960948</v>
+        <v>-46.8956223</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 15:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de ROUBO na região no Terça às 13:00. Probabilidade: 0.49</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -2303,38 +2305,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>VALE VERDE</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DULCE TORRES BROCHADO</t>
+          <t>EVA APARECIDA DA SILVA</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-16.3564944</v>
+        <v>-16.2999368</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.8870552</v>
+        <v>-46.9061331</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 16:00. Probabilidade: 0.91</t>
+          <t>Alta probabilidade de ROUBO na região no Terça às 14:00. Probabilidade: 0.53</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em VALE VERDE</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -2348,38 +2350,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DJALMA TORRES</t>
+          <t>SAO JOAO</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.3563784</v>
+        <v>-16.3731448</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.8946721</v>
+        <v>-46.900479</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 17:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de ROUBO na região no Terça às 15:00. Probabilidade: 0.39</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -2393,38 +2395,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PRIMAVERA CINCO</t>
+          <t>AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MARILIA MARTINS</t>
+          <t>PARDAIS</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-16.357081</v>
+        <v>-16.3408439</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.8821471</v>
+        <v>-46.9019975</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 18:00. Probabilidade: 0.92</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Terça às 16:00. Probabilidade: 0.39</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em PRIMAVERA CINCO</t>
+          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -2438,38 +2440,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>LEAO LARA</t>
+          <t>SAO JOAO</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.3694864</v>
+        <v>-16.3731448</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.8973873</v>
+        <v>-46.900479</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 19:00. Probabilidade: 0.90</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Terça às 17:00. Probabilidade: 0.39</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -2483,38 +2485,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>18:20</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NOVA</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.3562869</v>
+        <v>-16.3541391</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.8946652</v>
+        <v>-46.8993053</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 20:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de ROUBO na região no Terça às 18:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -2528,38 +2530,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ATAUALPA J DA CUNHA</t>
+          <t>GERSON RODRIGUES GONDIM</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.3562869</v>
+        <v>-16.3541391</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.8904441</v>
+        <v>-46.9032095</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 21:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de ROUBO na região no Terça às 19:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -2573,38 +2575,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22:20</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>COMPANHIA DE DISTRITO INDUSTRIAL</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>OLARIA</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.3496702</v>
+        <v>-16.3578758</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.8864003</v>
+        <v>-46.8977027</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 22:00. Probabilidade: 0.90</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Terça às 20:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em COMPANHIA DE DISTRITO INDUSTRIAL</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -2618,41 +2620,131 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>GOVERNADOR VALADARES</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>-16.3640593</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-46.9039224</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de ROUBO na região no Terça às 21:00. Probabilidade: 0.40</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em CENTRO</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22:20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>SABARA</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>-16.3630222</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-46.8956223</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de ROUBO na região no Terça às 22:00. Probabilidade: 0.44</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>23:00</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>23:20</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>DIVINEIA</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>SAO JOAO</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>-16.37988889</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-46.8919813</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 23:00. Probabilidade: 0.91</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ITAPUA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>VENINA RAMOS AGUIAR</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>-16.3545916</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-46.9020118</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de ROUBO na região no Terça às 23:00. Probabilidade: 0.47</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em ITAPUA</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2665,7 +2757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2677,12 +2769,12 @@
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="15.6" customWidth="1" min="5" max="5"/>
-    <col width="31.2" customWidth="1" min="6" max="6"/>
+    <col width="22.8" customWidth="1" min="5" max="5"/>
+    <col width="32.4" customWidth="1" min="6" max="6"/>
     <col width="15.6" customWidth="1" min="7" max="7"/>
-    <col width="16.8" customWidth="1" min="8" max="8"/>
-    <col width="94.8" customWidth="1" min="9" max="9"/>
-    <col width="49.2" customWidth="1" min="10" max="10"/>
+    <col width="15.6" customWidth="1" min="8" max="8"/>
+    <col width="114" customWidth="1" min="9" max="9"/>
+    <col width="56.4" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -2762,28 +2854,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PRIMAVERA</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>FRAMBOESAS</t>
+          <t>ANTONIO FRANCISCO BARBOSA</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.3616052</v>
+        <v>-16.2954644</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.8844948</v>
+        <v>-46.9061331</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 0:00. Probabilidade: 0.80</t>
+          <t>Alta probabilidade de ROUBO na região no Quarta às 0:00. Probabilidade: 0.47</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em PRIMAVERA</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -2807,28 +2899,28 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SANTOS DUMONT</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.3737106</v>
+        <v>-16.3580464</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.8950215</v>
+        <v>-46.9039224</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 1:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de ROUBO na região no Quarta às 1:00. Probabilidade: 0.46</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -2852,28 +2944,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CELINA LISBOA FREDERICO</t>
+          <t>SABARA</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.353416</v>
+        <v>-16.3647673</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.895454</v>
+        <v>-46.8968304</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 2:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de ROUBO na região no Quarta às 2:00. Probabilidade: 0.48</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -2897,28 +2989,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>INVÁLIDO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.3761071</v>
+        <v>-16.3578758</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.8839828</v>
+        <v>-46.8967347</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 3:00. Probabilidade: 0.84</t>
+          <t>Alta probabilidade de ROUBO na região no Quarta às 3:00. Probabilidade: 0.40</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em INVÁLIDO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -2942,28 +3034,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>INVÁLIDO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.3761071</v>
+        <v>-16.3540281</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.88553</v>
+        <v>-46.8977027</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 4:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de ROUBO na região no Quarta às 4:00. Probabilidade: 0.40</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em INVÁLIDO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -2977,38 +3069,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>06:20</t>
+          <t>05:20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CASTRO ALVES</t>
+          <t>PARDAIS</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-16.3751678</v>
+        <v>-16.3408439</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.8943894</v>
+        <v>-46.9019975</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 6:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quarta às 5:00. Probabilidade: 0.36</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -3022,38 +3114,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>07:20</t>
+          <t>06:20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DULCE TORRES BROCHADO</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.353214</v>
+        <v>-16.3580464</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8902633</v>
+        <v>-46.9012748</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 7:00. Probabilidade: 0.84</t>
+          <t>Alta probabilidade de ROUBO na região no Quarta às 6:00. Probabilidade: 0.47</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -3067,38 +3159,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>08:20</t>
+          <t>07:20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CANABRAVA</t>
+          <t>PARDAIS</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-16.3529528</v>
+        <v>-16.3423364</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.8914578</v>
+        <v>-46.9019975</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 8:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quarta às 7:00. Probabilidade: 0.37</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -3112,38 +3204,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>08:20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SAGARANA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MARTINHO GAIA FILHO</t>
+          <t>DJALMA TORRES</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.3686176</v>
+        <v>-16.3540281</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.8835413</v>
+        <v>-46.8977027</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 9:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de ROUBO na região no Quarta às 8:00. Probabilidade: 0.39</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SAGARANA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -3157,38 +3249,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>ALBA GONZAGA</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.3778046</v>
+        <v>-16.3541391</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.8937782</v>
+        <v>-46.8996242</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 10:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de ROUBO na região no Quarta às 9:00. Probabilidade: 0.47</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -3202,38 +3294,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ANTONIO BROCHADO</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.3675361</v>
+        <v>-16.3630222</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.8858473</v>
+        <v>-46.8958547</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 11:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de ROUBO na região no Quarta às 10:00. Probabilidade: 0.49</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA LUZIA</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -3247,38 +3339,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PRINCESA ISABEL</t>
+          <t>AGUAS MARINHAS</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.3696973</v>
+        <v>-16.3731448</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.8919268</v>
+        <v>-46.8996636</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 12:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de ROUBO na região no Quarta às 11:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -3292,38 +3384,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CANABRAVA</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PATOS DE MINAS</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.3578125</v>
+        <v>-16.3665317</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.8886659</v>
+        <v>-46.8968304</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 13:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de ROUBO na região no Quarta às 12:00. Probabilidade: 0.49</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CANABRAVA</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -3337,38 +3429,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>VALE VERDE</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>OLAVO FRANCISCO OLIVEIRA</t>
+          <t>JONAS DE SOUZA PORTO</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.3577175</v>
+        <v>-16.3017335</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.8870552</v>
+        <v>-46.9031705</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 14:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de ROUBO na região no Quarta às 13:00. Probabilidade: 0.51</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em VALE VERDE</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -3382,38 +3474,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BELA VISTA</t>
+          <t>ITAPUA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DOM LUSTOSA</t>
+          <t>VENINA RAMOS AGUIAR</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-16.3810777</v>
+        <v>-16.3530837</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.8859362</v>
+        <v>-46.9045346</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 15:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de ROUBO na região no Quarta às 14:00. Probabilidade: 0.50</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em BELA VISTA</t>
+          <t>Patrulhamento preventivo em ITAPUA</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -3427,38 +3519,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PRIMAVERA</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>JAMBOS</t>
+          <t>EVA APARECIDA DA SILVA</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.3605282</v>
+        <v>-16.3017335</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.88327778</v>
+        <v>-46.9041868</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 16:00. Probabilidade: 0.91</t>
+          <t>Alta probabilidade de ROUBO na região no Quarta às 15:00. Probabilidade: 0.51</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em PRIMAVERA</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -3472,38 +3564,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>SANTA CLARA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FILADELFO SOUZA PINTO</t>
+          <t>LEAO ROCHA</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-16.3676437</v>
+        <v>-16.2889972</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.8891524</v>
+        <v>-46.9026617</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 17:00. Probabilidade: 0.91</t>
+          <t>Alta probabilidade de ROUBO na região no Quarta às 16:00. Probabilidade: 0.51</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA LUZIA</t>
+          <t>Patrulhamento preventivo em SANTA CLARA</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -3517,38 +3609,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SERENATA</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ANTONIO BROCHADO</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.3685297</v>
+        <v>-16.3647673</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.8857561</v>
+        <v>-46.8958547</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 18:00. Probabilidade: 0.91</t>
+          <t>Alta probabilidade de ROUBO na região no Quarta às 17:00. Probabilidade: 0.47</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SERENATA</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -3562,38 +3654,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>18:20</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PRIMAVERA</t>
+          <t>BARROCA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PARA</t>
+          <t>PRESIDENTE CASTELO BRANCO</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.3634049</v>
+        <v>-16.3701057</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.8833808</v>
+        <v>-46.9017296</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 19:00. Probabilidade: 0.92</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quarta às 18:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em PRIMAVERA</t>
+          <t>Patrulhamento preventivo em BARROCA</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -3607,38 +3699,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>POLITECNICA</t>
+          <t>BARROCA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>POUSADA</t>
+          <t>PRESIDENTE CASTELO BRANCO</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.3508284</v>
+        <v>-16.3701057</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.8841169</v>
+        <v>-46.9017296</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 20:00. Probabilidade: 0.92</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quarta às 19:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em POLITECNICA</t>
+          <t>Patrulhamento preventivo em BARROCA</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -3652,38 +3744,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DOM BOSCO</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ANTONIO BROCHADO</t>
+          <t>BURITIS</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.3656429</v>
+        <v>-16.3550978</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.8885039</v>
+        <v>-46.9039224</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 21:00. Probabilidade: 0.90</t>
+          <t>Alta probabilidade de ROUBO na região no Quarta às 20:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DOM BOSCO</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -3697,38 +3789,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22:20</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TRANSAMAZONICA</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-16.3737562</v>
+        <v>-16.3630222</v>
       </c>
       <c r="H23" t="n">
-        <v>-46.8931292</v>
+        <v>-46.8956223</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 22:00. Probabilidade: 0.90</t>
+          <t>Alta probabilidade de ROUBO na região no Quarta às 21:00. Probabilidade: 0.45</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -3742,41 +3834,86 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22:20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>CAPIM BRANCO DOIS</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>SAO JOAO</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>-16.3708733</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-46.8996636</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quarta às 22:00. Probabilidade: 0.42</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>23:00</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>23:20</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>CANABRAVA</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>-16.3562869</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-46.8878696</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 23:00. Probabilidade: 0.88</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>GOVERNADOR VALADARES</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>-16.3580464</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-46.8999924</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quarta às 23:00. Probabilidade: 0.40</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em CENTRO</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3789,7 +3926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3801,12 +3938,12 @@
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="31.2" customWidth="1" min="6" max="6"/>
+    <col width="21.6" customWidth="1" min="5" max="5"/>
+    <col width="34.8" customWidth="1" min="6" max="6"/>
     <col width="15.6" customWidth="1" min="7" max="7"/>
     <col width="15.6" customWidth="1" min="8" max="8"/>
-    <col width="94.8" customWidth="1" min="9" max="9"/>
-    <col width="63.59999999999999" customWidth="1" min="10" max="10"/>
+    <col width="114" customWidth="1" min="9" max="9"/>
+    <col width="55.2" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -3886,28 +4023,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA DO CARMO</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ALDEIA</t>
+          <t>SABARA</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.3582892</v>
+        <v>-16.3665317</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.8929832</v>
+        <v>-46.8958547</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 0:00. Probabilidade: 0.81</t>
+          <t>Alta probabilidade de ROUBO na região no Quinta às 0:00. Probabilidade: 0.44</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOSSA SENHORA DO CARMO</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -3931,28 +4068,28 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PRIMAVERA</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MANGABAS</t>
+          <t>SABARA</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.3631874</v>
+        <v>-16.3630222</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.8844811</v>
+        <v>-46.8968304</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 1:00. Probabilidade: 0.80</t>
+          <t>Alta probabilidade de ROUBO na região no Quinta às 1:00. Probabilidade: 0.45</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em PRIMAVERA</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -3976,28 +4113,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>VEREADOR JOAO NARCISO</t>
+          <t>VIRGILIO JUSTINIANO RIBEIRO</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.3520424</v>
+        <v>-16.3569267</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.8902633</v>
+        <v>-46.8993053</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 2:00. Probabilidade: 0.81</t>
+          <t>Alta probabilidade de ROUBO na região no Quinta às 2:00. Probabilidade: 0.45</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -4021,28 +4158,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CANABRAVA</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>JARBAS DE OLIVEIRA SOUTO</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.3578125</v>
+        <v>-16.3630222</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.8887522</v>
+        <v>-46.8968304</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 3:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de ROUBO na região no Quinta às 3:00. Probabilidade: 0.46</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CANABRAVA</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -4066,28 +4203,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SERRA</t>
+          <t>UNAI</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.3725676</v>
+        <v>-16.3423364</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.8865229</v>
+        <v>-46.8956847</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 4:00. Probabilidade: 0.81</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quinta às 4:00. Probabilidade: 0.34</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA LUZIA</t>
+          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -4111,28 +4248,28 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>VEREADOR JOAO NARCISO</t>
+          <t>GERSON RODRIGUES GONDIM</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-16.3562869</v>
+        <v>-16.3554598</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.8899972</v>
+        <v>-46.9039224</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 5:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de ROUBO na região no Quinta às 5:00. Probabilidade: 0.46</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -4156,28 +4293,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>VEREADOR JOAO NARCISO</t>
+          <t>VIRGILIO JUSTINIANO RIBEIRO</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.3562869</v>
+        <v>-16.3640593</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8947452</v>
+        <v>-46.9032095</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 6:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de ROUBO na região no Quinta às 6:00. Probabilidade: 0.46</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -4201,28 +4338,28 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-16.3731939</v>
+        <v>-16.3665317</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.8931292</v>
+        <v>-46.8958547</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 7:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de ROUBO na região no Quinta às 7:00. Probabilidade: 0.47</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -4246,28 +4383,28 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>INVÁLIDO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.3816358</v>
+        <v>-16.3578758</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.8839828</v>
+        <v>-46.8967347</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 8:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de ROUBO na região no Quinta às 8:00. Probabilidade: 0.39</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em INVÁLIDO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -4291,28 +4428,28 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA APARECIDA</t>
+          <t>BARROCA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FREI SUPRIANO</t>
+          <t>PRESIDENTE CASTELO BRANCO</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.363006</v>
+        <v>-16.3701057</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.8896141</v>
+        <v>-46.9017296</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 9:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quinta às 9:00. Probabilidade: 0.37</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
+          <t>Patrulhamento preventivo em BARROCA</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -4336,28 +4473,28 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>VILA MILITAR</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ANTONIETA TORRES</t>
+          <t>VIRGILIO JUSTINIANO RIBEIRO</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.3759322</v>
+        <v>-16.3561114</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.8835333</v>
+        <v>-46.9032221</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 10:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de ROUBO na região no Quinta às 10:00. Probabilidade: 0.46</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em VILA MILITAR</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -4381,28 +4518,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>LIRIOS</t>
+          <t>GERSON RODRIGUES GONDIM</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.3664376</v>
+        <v>-16.36506</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.8922725</v>
+        <v>-46.9032095</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 11:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de ROUBO na região no Quinta às 11:00. Probabilidade: 0.46</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -4426,28 +4563,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FILADELFO SOUZA PINTO</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.3685455</v>
+        <v>-16.36506</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.8876118</v>
+        <v>-46.8999924</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 12:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de ROUBO na região no Quinta às 12:00. Probabilidade: 0.45</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA LUZIA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -4471,28 +4608,28 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA APARECIDA</t>
+          <t>SANTA CLARA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ANTONIO BROCHADO</t>
+          <t>LEAO ROCHA</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.3618514</v>
+        <v>-16.2889972</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.8900374</v>
+        <v>-46.9026617</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 13:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de ROUBO na região no Quinta às 13:00. Probabilidade: 0.47</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
+          <t>Patrulhamento preventivo em SANTA CLARA</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -4516,28 +4653,28 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DJALMA TORRES</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-16.3562869</v>
+        <v>-16.36506</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.891383</v>
+        <v>-46.8993053</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 14:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de ROUBO na região no Quinta às 14:00. Probabilidade: 0.45</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -4561,28 +4698,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MAGNOLIAS</t>
+          <t>UNAI</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.3691097</v>
+        <v>-16.3423364</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.8927962</v>
+        <v>-46.9019975</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 15:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quinta às 15:00. Probabilidade: 0.41</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -4606,28 +4743,28 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>SABARA</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-16.3751398</v>
+        <v>-16.3647673</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.8918</v>
+        <v>-46.8958547</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 16:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de ROUBO na região no Quinta às 16:00. Probabilidade: 0.47</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -4651,28 +4788,28 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SANTOS DUMONT</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.3711484</v>
+        <v>-16.36506</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.8940111</v>
+        <v>-46.901516</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 17:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de ROUBO na região no Quinta às 17:00. Probabilidade: 0.44</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -4696,28 +4833,28 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>INVÁLIDO</t>
+          <t>ITAPUA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO SOARES</t>
+          <t>VENINA RAMOS AGUIAR</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.3679913</v>
+        <v>-16.3545916</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.8853622</v>
+        <v>-46.9045346</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 18:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de ROUBO na região no Quinta às 18:00. Probabilidade: 0.48</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em INVÁLIDO</t>
+          <t>Patrulhamento preventivo em ITAPUA</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -4741,28 +4878,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO DOIS</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SAO JOAO</t>
+          <t>JONAS DE SOUZA PORTO</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.3724096</v>
+        <v>-16.3017335</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.9003549</v>
+        <v>-46.9018028</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 19:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de ROUBO na região no Quinta às 19:00. Probabilidade: 0.49</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -4786,28 +4923,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ANTONIO BROCHADO</t>
+          <t>DJALMA TORRES</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.3688956</v>
+        <v>-16.3540281</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.8893439</v>
+        <v>-46.8977027</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 20:00. Probabilidade: 0.91</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quinta às 20:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA LUZIA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -4831,28 +4968,28 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>BELA VISTA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>ALDEIA</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-16.3779125</v>
+        <v>-16.3550978</v>
       </c>
       <c r="H23" t="n">
-        <v>-46.8861666</v>
+        <v>-46.9032221</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 21:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de ROUBO na região no Quinta às 21:00. Probabilidade: 0.41</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em BELA VISTA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -4866,41 +5003,86 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22:20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>AGUA BRANCA DOIS</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>UNAI</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>-16.3423364</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-46.9019975</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quinta às 22:00. Probabilidade: 0.42</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>23:00</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>23:20</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>PRIMAVERA CINCO</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>TAQUARIL</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>-16.3557413</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-46.8824798</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 23:00. Probabilidade: 0.92</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em PRIMAVERA CINCO</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>GOVERNADOR VALADARES</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>-16.3541391</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-46.9039224</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de ROUBO na região no Quinta às 23:00. Probabilidade: 0.40</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em CENTRO</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4925,12 +5107,12 @@
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="31.2" customWidth="1" min="6" max="6"/>
-    <col width="16.8" customWidth="1" min="7" max="7"/>
-    <col width="16.8" customWidth="1" min="8" max="8"/>
-    <col width="93.59999999999999" customWidth="1" min="9" max="9"/>
-    <col width="63.59999999999999" customWidth="1" min="10" max="10"/>
+    <col width="22.8" customWidth="1" min="5" max="5"/>
+    <col width="32.4" customWidth="1" min="6" max="6"/>
+    <col width="15.6" customWidth="1" min="7" max="7"/>
+    <col width="15.6" customWidth="1" min="8" max="8"/>
+    <col width="112.8" customWidth="1" min="9" max="9"/>
+    <col width="56.4" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -5010,28 +5192,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO DOIS</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ARLINDO GOMES BRANQUINHO</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.376106</v>
+        <v>-16.3640593</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.9003549</v>
+        <v>-46.9039224</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 0:00. Probabilidade: 0.80</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 0:00. Probabilidade: 0.41</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -5055,28 +5237,28 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PATOS DE MINAS</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.3672763</v>
+        <v>-16.3665317</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.8927606</v>
+        <v>-46.8958547</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 1:00. Probabilidade: 0.81</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 1:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -5100,28 +5282,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>JONAS DE SOUZA PORTO</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.3544539</v>
+        <v>-16.2999368</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.8952531</v>
+        <v>-46.9031705</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 2:00. Probabilidade: 0.80</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 2:00. Probabilidade: 0.41</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -5145,28 +5327,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VEREADOR JOAO NARCISO</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.3547402</v>
+        <v>-16.3561114</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.8922435</v>
+        <v>-46.9032221</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 3:00. Probabilidade: 0.80</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 3:00. Probabilidade: 0.43</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -5190,28 +5372,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA APARECIDA</t>
+          <t>CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>AGUAS MARINHAS</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.3609719</v>
+        <v>-16.3708733</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.8907448</v>
+        <v>-46.900479</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 4:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 4:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
+          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -5235,28 +5417,28 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CANABRAVA</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MIGUEL MENDES NASCIMENTO</t>
+          <t>EVA APARECIDA DA SILVA</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-16.3581941</v>
+        <v>-16.2999368</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.8879224</v>
+        <v>-46.9018028</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 5:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 5:00. Probabilidade: 0.43</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CANABRAVA</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -5280,28 +5462,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PRIMAVERA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>PARA</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.3647763</v>
+        <v>-16.3580464</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8840255</v>
+        <v>-46.9009258</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 6:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 6:00. Probabilidade: 0.44</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em PRIMAVERA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -5325,28 +5507,28 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>FREI ANSELMO</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-16.3687477</v>
+        <v>-16.3647673</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.8948678</v>
+        <v>-46.8956223</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 7:00. Probabilidade: 0.84</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 7:00. Probabilidade: 0.45</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -5370,28 +5552,28 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>ITAPUA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>VENINA RAMOS AGUIAR</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.3562869</v>
+        <v>-16.3530837</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.8908283</v>
+        <v>-46.9020118</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 8:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 8:00. Probabilidade: 0.46</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em ITAPUA</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -5415,28 +5597,28 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AGUAS CLARAS</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FRANCISCO SERGIO DIAS</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.3762943</v>
+        <v>-16.3580464</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.8939619</v>
+        <v>-46.9012748</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 9:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 9:00. Probabilidade: 0.45</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em AGUAS CLARAS</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -5460,28 +5642,28 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ALDEIA</t>
+          <t>UNAI</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.3542222</v>
+        <v>-16.3423364</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.8914578</v>
+        <v>-46.8956847</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 10:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Sexta às 10:00. Probabilidade: 0.38</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -5505,28 +5687,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>POLITECNICA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>JIBOIA</t>
+          <t>BURITIS</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.35071667</v>
+        <v>-16.3554598</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.87866667</v>
+        <v>-46.901516</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 11:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 11:00. Probabilidade: 0.45</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em POLITECNICA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -5550,28 +5732,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CASTRO ALVES</t>
+          <t>DJALMA TORRES</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.3787445</v>
+        <v>-16.3540281</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.891729</v>
+        <v>-46.8977027</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 12:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 12:00. Probabilidade: 0.38</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -5595,28 +5777,28 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>VEREADOR JOAO NARCISO</t>
+          <t>SABARA</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.3525035</v>
+        <v>-16.3630222</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.895032</v>
+        <v>-46.8956223</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 13:00. Probabilidade: 0.84</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 13:00. Probabilidade: 0.46</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -5640,26 +5822,28 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>POLITECNICA</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v/>
+          <t>AGUA BRANCA DOIS</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>UNAI</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>-16.3513455</v>
+        <v>-16.3423364</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.8833117</v>
+        <v>-46.8956847</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 14:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Sexta às 14:00. Probabilidade: 0.41</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em POLITECNICA</t>
+          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -5683,28 +5867,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA DO CARMO</t>
+          <t>CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ANTONIO BROCHADO</t>
+          <t>AGUAS MARINHAS</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.3593174</v>
+        <v>-16.3731448</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.89254</v>
+        <v>-46.8996636</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 15:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 15:00. Probabilidade: 0.41</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOSSA SENHORA DO CARMO</t>
+          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -5728,28 +5912,28 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-16.3552952</v>
+        <v>-16.3665317</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.8947452</v>
+        <v>-46.8958547</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 16:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 16:00. Probabilidade: 0.46</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -5773,28 +5957,28 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CANABRAVA</t>
+          <t>EDUARDO RODRIGUES BARBOSA</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.3545839</v>
+        <v>-16.3561114</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.8871824</v>
+        <v>-46.901516</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 17:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 17:00. Probabilidade: 0.43</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -5818,28 +6002,28 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SERRA</t>
+          <t>SABARA</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.3676437</v>
+        <v>-16.3665317</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.8895017</v>
+        <v>-46.8956223</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 18:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 18:00. Probabilidade: 0.45</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA LUZIA</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -5863,28 +6047,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>BURITIS</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.3755384</v>
+        <v>-16.3580464</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.8941451</v>
+        <v>-46.8993053</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 19:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 19:00. Probabilidade: 0.43</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -5908,28 +6092,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA APARECIDA</t>
+          <t>SANTA CLARA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>PATOS DE MINAS</t>
+          <t>LEAO ROCHA</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.3601621</v>
+        <v>-16.2889972</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.8897245</v>
+        <v>-46.9026617</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 20:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 20:00. Probabilidade: 0.46</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
+          <t>Patrulhamento preventivo em SANTA CLARA</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -5953,28 +6137,28 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CANABRAVA</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-16.3544155</v>
+        <v>-16.3629615</v>
       </c>
       <c r="H23" t="n">
-        <v>-46.8878696</v>
+        <v>-46.9009258</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 21:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 21:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -5998,28 +6182,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>JOAO FRANCISCO SOUZA</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-16.3789051</v>
+        <v>-16.3647673</v>
       </c>
       <c r="H24" t="n">
-        <v>-46.8941451</v>
+        <v>-46.8958547</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 22:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de ROUBO na região no Sexta às 22:00. Probabilidade: 0.44</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -6043,28 +6227,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA APARECIDA</t>
+          <t>AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MONTE CARMELO</t>
+          <t>UNAI</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-16.3618949</v>
+        <v>-16.3423364</v>
       </c>
       <c r="H25" t="n">
-        <v>-46.8899401</v>
+        <v>-46.9019975</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 23:00. Probabilidade: 0.90</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Sexta às 23:00. Probabilidade: 0.43</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
+          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -6092,12 +6276,12 @@
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="15.6" customWidth="1" min="5" max="5"/>
-    <col width="32.4" customWidth="1" min="6" max="6"/>
+    <col width="21.6" customWidth="1" min="5" max="5"/>
+    <col width="36" customWidth="1" min="6" max="6"/>
     <col width="15.6" customWidth="1" min="7" max="7"/>
     <col width="15.6" customWidth="1" min="8" max="8"/>
-    <col width="94.8" customWidth="1" min="9" max="9"/>
-    <col width="49.2" customWidth="1" min="10" max="10"/>
+    <col width="114" customWidth="1" min="9" max="9"/>
+    <col width="55.2" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -6177,28 +6361,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CAMELIAS</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.3675066</v>
+        <v>-16.3640593</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.8925128</v>
+        <v>-46.9039224</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 0:00. Probabilidade: 0.79</t>
+          <t>Alta probabilidade de ROUBO na região no Sábado às 0:00. Probabilidade: 0.38</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -6222,28 +6406,28 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CANABRAVA</t>
+          <t>VIRGILIO JUSTINIANO RIBEIRO</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.3508191</v>
+        <v>-16.3550978</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.8890279</v>
+        <v>-46.9039224</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 1:00. Probabilidade: 0.78</t>
+          <t>Alta probabilidade de ROUBO na região no Sábado às 1:00. Probabilidade: 0.39</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -6267,28 +6451,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>INVÁLIDO</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DO AMANHECER</t>
+          <t>ALBA GONZAGA</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.3494752</v>
+        <v>-16.3541391</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.8948012</v>
+        <v>-46.9032221</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 2:00. Probabilidade: 0.80</t>
+          <t>Alta probabilidade de ROUBO na região no Sábado às 2:00. Probabilidade: 0.40</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em INVÁLIDO</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -6312,28 +6496,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DULCE TORRES BROCHADO</t>
+          <t>ALBA GONZAGA</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.3547114</v>
+        <v>-16.3580464</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.8915069</v>
+        <v>-46.9032095</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 3:00. Probabilidade: 0.79</t>
+          <t>Alta probabilidade de ROUBO na região no Sábado às 3:00. Probabilidade: 0.40</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -6357,28 +6541,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>VALE VERDE</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>QUINTINO FIRMINO DA SILVA</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.3575396</v>
+        <v>-16.3665317</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.883355</v>
+        <v>-46.8956223</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 4:00. Probabilidade: 0.76</t>
+          <t>Alta probabilidade de ROUBO na região no Sábado às 4:00. Probabilidade: 0.41</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em VALE VERDE</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -6402,28 +6586,28 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CAMELIAS</t>
+          <t>UNAI</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-16.3654531</v>
+        <v>-16.3423364</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.8917934</v>
+        <v>-46.8956847</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 5:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Sábado às 5:00. Probabilidade: 0.32</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -6447,28 +6631,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BELA VISTA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ITAOCA</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.3779125</v>
+        <v>-16.3541391</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.883678</v>
+        <v>-46.9032095</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 6:00. Probabilidade: 0.80</t>
+          <t>Alta probabilidade de ROUBO na região no Sábado às 6:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em BELA VISTA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -6492,28 +6676,28 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CANABRAVA</t>
+          <t>FRANCISCO RODRIGUES DA SILVA</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-16.3562869</v>
+        <v>-16.3630222</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.8881969</v>
+        <v>-46.8956223</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 7:00. Probabilidade: 0.81</t>
+          <t>Alta probabilidade de ROUBO na região no Sábado às 7:00. Probabilidade: 0.43</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -6537,28 +6721,28 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>LEAO LARA</t>
+          <t>ANTONIO FRANCISCO BARBOSA</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.3707763</v>
+        <v>-16.2954644</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.89726</v>
+        <v>-46.9018028</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 8:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de ROUBO na região no Sábado às 8:00. Probabilidade: 0.41</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -6582,28 +6766,28 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>ITAPUA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>VEREADOR JOAO NARCISO</t>
+          <t>JOAO PINHEIRO</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.3522182</v>
+        <v>-16.3530837</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.8938198</v>
+        <v>-46.9045346</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 9:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de ROUBO na região no Sábado às 9:00. Probabilidade: 0.43</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em ITAPUA</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -6627,28 +6811,28 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>VALE VERDE</t>
+          <t>SANTA CLARA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>OLAVO FRANCISCO OLIVEIRA</t>
+          <t>LEAO ROCHA</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.3542374</v>
+        <v>-16.2889972</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.8834905</v>
+        <v>-46.9026617</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 10:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de EXTORSAO na região no Sábado às 10:00. Probabilidade: 0.46</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em VALE VERDE</t>
+          <t>Patrulhamento preventivo em SANTA CLARA</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -6672,28 +6856,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>VALE VERDE</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>QUINTINO FIRMINO DA SILVA</t>
+          <t>SABARA</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.3570556</v>
+        <v>-16.3665317</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.8834905</v>
+        <v>-46.8968304</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 11:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de ROUBO na região no Sábado às 11:00. Probabilidade: 0.44</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em VALE VERDE</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -6717,28 +6901,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CAMELIAS</t>
+          <t>FRANCISCO RODRIGUES DA SILVA</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.3675425</v>
+        <v>-16.3665317</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.8929188</v>
+        <v>-46.8968304</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 12:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de ROUBO na região no Sábado às 12:00. Probabilidade: 0.44</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -6762,28 +6946,28 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FREI ANSELMO</t>
+          <t>JONAS DE SOUZA PORTO</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.3715697</v>
+        <v>-16.2999368</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.8904168</v>
+        <v>-46.9018028</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 13:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de ROUBO na região no Sábado às 13:00. Probabilidade: 0.43</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -6807,28 +6991,28 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BELA VISTA</t>
+          <t>AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MARIA BORGES</t>
+          <t>UNAI</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-16.379033</v>
+        <v>-16.3408439</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.8859362</v>
+        <v>-46.9019975</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 14:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Sábado às 14:00. Probabilidade: 0.40</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em BELA VISTA</t>
+          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -6852,28 +7036,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FILADELFO SOUZA PINTO</t>
+          <t>ALBA GONZAGA</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.3688774</v>
+        <v>-16.36506</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.8851679</v>
+        <v>-46.9032221</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 15:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de ROUBO na região no Sábado às 15:00. Probabilidade: 0.43</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA LUZIA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -6897,28 +7081,28 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>INVÁLIDO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO SOARES</t>
+          <t>DJALMA TORRES</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-16.3571956</v>
+        <v>-16.3540281</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.88553</v>
+        <v>-46.8977027</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 16:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Sábado às 16:00. Probabilidade: 0.38</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em INVÁLIDO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -6942,28 +7126,28 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PATOS DE MINAS</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.3657188</v>
+        <v>-16.3578758</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.8913709</v>
+        <v>-46.8977027</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 17:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Sábado às 17:00. Probabilidade: 0.39</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -6987,28 +7171,28 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PATOS DE MINAS</t>
+          <t>ALBA GONZAGA</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.3664376</v>
+        <v>-16.3580464</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.8920907</v>
+        <v>-46.9032221</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 18:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de ROUBO na região no Sábado às 18:00. Probabilidade: 0.43</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -7032,28 +7216,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>VALE VERDE</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BENEDITO CAETANO COSTA</t>
+          <t>JOAO MORAES PESSOA</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.3563654</v>
+        <v>-16.3017335</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.8866379</v>
+        <v>-46.9018028</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 19:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de ROUBO na região no Sábado às 19:00. Probabilidade: 0.45</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em VALE VERDE</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -7077,28 +7261,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>TERRA NOVA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SOUZA LIMA</t>
+          <t>CHICO CURRAL VELHO</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.3708562</v>
+        <v>-16.3386311</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.8942156</v>
+        <v>-46.9051241</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 20:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de EXTORSAO na região no Sábado às 20:00. Probabilidade: 0.45</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em TERRA NOVA</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -7122,28 +7306,28 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FLORESTA</t>
+          <t>ITAPUA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ANTONIO GONCALVES</t>
+          <t>JOAO PINHEIRO</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-16.3637397</v>
+        <v>-16.3530837</v>
       </c>
       <c r="H23" t="n">
-        <v>-46.8874222</v>
+        <v>-46.9020118</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 21:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de ROUBO na região no Sábado às 21:00. Probabilidade: 0.45</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em FLORESTA</t>
+          <t>Patrulhamento preventivo em ITAPUA</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -7167,28 +7351,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>VALE VERDE</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>BENEDITO CAETANO COSTA</t>
+          <t>VIRGILIO JUSTINIANO RIBEIRO</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-16.3570985</v>
+        <v>-16.3640593</v>
       </c>
       <c r="H24" t="n">
-        <v>-46.8863929</v>
+        <v>-46.9032221</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 22:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de ROUBO na região no Sábado às 22:00. Probabilidade: 0.41</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em VALE VERDE</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -7212,28 +7396,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>SANTA CLARA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CANABRAVA</t>
+          <t>LEAO ROCHA</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-16.3545186</v>
+        <v>-16.2889972</v>
       </c>
       <c r="H25" t="n">
-        <v>-46.894195</v>
+        <v>-46.9026617</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 23:00. Probabilidade: 0.84</t>
+          <t>Alta probabilidade de ROUBO na região no Sábado às 23:00. Probabilidade: 0.44</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em SANTA CLARA</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -7261,12 +7445,12 @@
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="36" customWidth="1" min="5" max="5"/>
+    <col width="22.8" customWidth="1" min="5" max="5"/>
     <col width="36" customWidth="1" min="6" max="6"/>
     <col width="15.6" customWidth="1" min="7" max="7"/>
     <col width="15.6" customWidth="1" min="8" max="8"/>
-    <col width="96" customWidth="1" min="9" max="9"/>
-    <col width="69.59999999999999" customWidth="1" min="10" max="10"/>
+    <col width="115.2" customWidth="1" min="9" max="9"/>
+    <col width="56.4" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -7346,28 +7530,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA APARECIDA</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ABAETE</t>
+          <t>EVA APARECIDA DA SILVA</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.3612599</v>
+        <v>-16.2999368</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.8914408</v>
+        <v>-46.9041868</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 0:00. Probabilidade: 0.77</t>
+          <t>Alta probabilidade de EXTORSAO na região no Domingo às 0:00. Probabilidade: 0.47</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -7391,28 +7575,28 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CELINA LISBOA FREDERICO</t>
+          <t>JONAS DE SOUZA PORTO</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.352639</v>
+        <v>-16.297578</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.8917401</v>
+        <v>-46.9018028</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 1:00. Probabilidade: 0.76</t>
+          <t>Alta probabilidade de EXTORSAO na região no Domingo às 1:00. Probabilidade: 0.47</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -7436,28 +7620,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA APARECIDA</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.3607443</v>
+        <v>-16.3630222</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.8924024</v>
+        <v>-46.8968304</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 2:00. Probabilidade: 0.78</t>
+          <t>Alta probabilidade de ROUBO na região no Domingo às 2:00. Probabilidade: 0.37</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -7481,28 +7665,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CASTRO ALVES</t>
+          <t>VIRGILIO JUSTINIANO RIBEIRO</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.3751398</v>
+        <v>-16.3541391</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.8919813</v>
+        <v>-46.8993053</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 3:00. Probabilidade: 0.79</t>
+          <t>Alta probabilidade de ROUBO na região no Domingo às 3:00. Probabilidade: 0.38</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -7526,28 +7710,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>ITAPUA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SANTOS DUMONT</t>
+          <t>JOAO PINHEIRO</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.3771034</v>
+        <v>-16.3545916</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.8954761</v>
+        <v>-46.9020118</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 4:00. Probabilidade: 0.79</t>
+          <t>Alta probabilidade de EXTORSAO na região no Domingo às 4:00. Probabilidade: 0.40</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em ITAPUA</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -7571,28 +7755,28 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CELINA LISBOA FREDERICO</t>
+          <t>JOAO MORAES PESSOA</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-16.3563583</v>
+        <v>-16.297578</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.8928643</v>
+        <v>-46.9031705</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 5:00. Probabilidade: 0.78</t>
+          <t>Alta probabilidade de EXTORSAO na região no Domingo às 5:00. Probabilidade: 0.46</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -7616,28 +7800,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BELA VISTA</t>
+          <t>SANTA CLARA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DOM LUSTOSA</t>
+          <t>LEAO ROCHA</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.3785562</v>
+        <v>-16.2889972</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.884208</v>
+        <v>-46.9026617</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 6:00. Probabilidade: 0.78</t>
+          <t>Alta probabilidade de EXTORSAO na região no Domingo às 6:00. Probabilidade: 0.53</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em BELA VISTA</t>
+          <t>Patrulhamento preventivo em SANTA CLARA</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -7661,28 +7845,28 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>FREI ANSELMO</t>
+          <t>AGUAS MARINHAS</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-16.3710521</v>
+        <v>-16.3731448</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.8935253</v>
+        <v>-46.900479</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 7:00. Probabilidade: 0.81</t>
+          <t>Alta probabilidade de ROUBO na região no Domingo às 7:00. Probabilidade: 0.39</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -7706,28 +7890,28 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>JOAO FRANCISCO SOUZA</t>
+          <t>ALDEIA</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.3692933</v>
+        <v>-16.3550978</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.8934394</v>
+        <v>-46.8999924</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 8:00. Probabilidade: 0.81</t>
+          <t>Alta probabilidade de ROUBO na região no Domingo às 8:00. Probabilidade: 0.41</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -7751,28 +7935,28 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ROSAS</t>
+          <t>EVA APARECIDA DA SILVA</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.365617</v>
+        <v>-16.2999368</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.8936593</v>
+        <v>-46.9041868</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 9:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de EXTORSAO na região no Domingo às 9:00. Probabilidade: 0.45</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -7796,28 +7980,28 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>LISBOA</t>
+          <t>ALBA GONZAGA</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.370733</v>
+        <v>-16.36506</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.8866794</v>
+        <v>-46.9039224</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 10:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de ROUBO na região no Domingo às 10:00. Probabilidade: 0.41</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -7841,28 +8025,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TRANSAMAZONICA</t>
+          <t>EVA APARECIDA DA SILVA</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.3791102</v>
+        <v>-16.3017335</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.8926436</v>
+        <v>-46.9031705</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 11:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de EXTORSAO na região no Domingo às 11:00. Probabilidade: 0.44</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -7886,28 +8070,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO DOIS</t>
+          <t>SANTA CLARA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SAO JOAO</t>
+          <t>LEAO ROCHA</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.376106</v>
+        <v>-16.2889972</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.9003549</v>
+        <v>-46.9026617</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 12:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de EXTORSAO na região no Domingo às 12:00. Probabilidade: 0.49</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
+          <t>Patrulhamento preventivo em SANTA CLARA</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -7931,28 +8115,28 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>ITAPUA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DJALMA TORRES</t>
+          <t>VENINA RAMOS AGUIAR</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.3498958</v>
+        <v>-16.3530837</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.8914578</v>
+        <v>-46.9020118</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 13:00. Probabilidade: 0.81</t>
+          <t>Alta probabilidade de ROUBO na região no Domingo às 13:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em ITAPUA</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -7976,28 +8160,28 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>JONAS DE SOUZA PORTO</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-16.3539694</v>
+        <v>-16.2999368</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.8948193</v>
+        <v>-46.9018028</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 14:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de EXTORSAO na região no Domingo às 14:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -8021,28 +8205,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.3562869</v>
+        <v>-16.3569267</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.8883384</v>
+        <v>-46.9039224</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 15:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de ROUBO na região no Domingo às 15:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -8066,28 +8250,28 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PARQUE RESIDENCIAL CANABRAVA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>JUPITER</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-16.35345</v>
+        <v>-16.3554598</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.8801896</v>
+        <v>-46.901516</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 16:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de ROUBO na região no Domingo às 16:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em PARQUE RESIDENCIAL CANABRAVA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -8111,28 +8295,28 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CELINA LISBOA FREDERICO</t>
+          <t>JOAO MORAES PESSOA</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.3546838</v>
+        <v>-16.2999368</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.8883913</v>
+        <v>-46.9041868</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 17:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de ROUBO na região no Domingo às 17:00. Probabilidade: 0.41</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -8156,28 +8340,28 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>BARROCA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CANABRAVA</t>
+          <t>PRESIDENTE CASTELO BRANCO</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.3572453</v>
+        <v>-16.3701057</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.8928643</v>
+        <v>-46.9017296</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 18:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Domingo às 18:00. Probabilidade: 0.41</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em BARROCA</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -8201,28 +8385,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA APARECIDA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>VIRGILIO JUSTINIANO RIBEIRO</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.3636056</v>
+        <v>-16.3629615</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.8894441</v>
+        <v>-46.9039224</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 19:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de ROUBO na região no Domingo às 19:00. Probabilidade: 0.41</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -8246,28 +8430,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CANABRAVA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>RAMIRO BORGES</t>
+          <t>ALDEIA</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.3594268</v>
+        <v>-16.3629615</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.8903073</v>
+        <v>-46.8999924</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 20:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de ROUBO na região no Domingo às 20:00. Probabilidade: 0.41</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CANABRAVA</t>
+          <t>Patrulhamento preventivo em CENTRO</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -8291,28 +8475,28 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CRUZEIRO</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CANABRAVA</t>
+          <t>FRANCISCO RODRIGUES DA SILVA</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-16.3508715</v>
+        <v>-16.3647673</v>
       </c>
       <c r="H23" t="n">
-        <v>-46.8958862</v>
+        <v>-46.8958547</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 21:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de ROUBO na região no Domingo às 21:00. Probabilidade: 0.43</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CRUZEIRO</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -8336,28 +8520,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>SANTA CLARA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>FRANCISCO RODRIGUES DA SILVA</t>
+          <t>LEAO ROCHA</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-16.36408</v>
+        <v>-16.2889972</v>
       </c>
       <c r="H24" t="n">
-        <v>-46.8932888</v>
+        <v>-46.9026617</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 22:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de EXTORSAO na região no Domingo às 22:00. Probabilidade: 0.42</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em SANTA CLARA</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -8381,28 +8565,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SAGARANA</t>
+          <t>MAMOEIRO</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>SERRA</t>
+          <t>JOAO MORAES PESSOA</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-16.3685796</v>
+        <v>-16.2999368</v>
       </c>
       <c r="H25" t="n">
-        <v>-46.8850053</v>
+        <v>-46.9061331</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 23:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de ROUBO na região no Domingo às 23:00. Probabilidade: 0.43</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SAGARANA</t>
+          <t>Patrulhamento preventivo em MAMOEIRO</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>

--- a/cartao_programa.xlsx
+++ b/cartao_programa.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,12 +431,12 @@
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="22.8" customWidth="1" min="5" max="5"/>
-    <col width="32.4" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="36" customWidth="1" min="6" max="6"/>
     <col width="15.6" customWidth="1" min="7" max="7"/>
     <col width="15.6" customWidth="1" min="8" max="8"/>
-    <col width="115.2" customWidth="1" min="9" max="9"/>
-    <col width="56.4" customWidth="1" min="10" max="10"/>
+    <col width="96" customWidth="1" min="9" max="9"/>
+    <col width="63.59999999999999" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -516,28 +516,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>FRANCISCO RODRIGUES DA SILVA</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.3640593</v>
+        <v>-16.3651047</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.9032095</v>
+        <v>-46.8927962</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Segunda às 0:00. Probabilidade: 0.49</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 0:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -561,28 +561,28 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BARROCA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PRESIDENTE CASTELO BRANCO</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.3701057</v>
+        <v>-16.356901</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.9017296</v>
+        <v>-46.8910966</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Segunda às 1:00. Probabilidade: 0.36</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 1:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em BARROCA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -606,28 +606,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TERRA NOVA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CHICO CURRAL VELHO</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.3386311</v>
+        <v>-16.3498958</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.9051241</v>
+        <v>-46.8902746</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Segunda às 2:00. Probabilidade: 0.51</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 2:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em TERRA NOVA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -651,28 +651,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AGUA BRANCA DOIS</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PARDAIS</t>
+          <t>CAPITAO CARLOS GONZAGA</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.3423364</v>
+        <v>-16.3523291</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.8956847</v>
+        <v>-46.89318</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Segunda às 3:00. Probabilidade: 0.35</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 3:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -696,28 +696,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AGUA BRANCA DOIS</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PARDAIS</t>
+          <t>FRANCISCO SERGIO DIAS</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.3408439</v>
+        <v>-16.3687477</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.9019975</v>
+        <v>-46.8921586</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Segunda às 4:00. Probabilidade: 0.36</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 4:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -741,28 +741,28 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BARROCA</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>PRESIDENTE CASTELO BRANCO</t>
+          <t>CASTRO ALVES</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-16.3701057</v>
+        <v>-16.378947</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.9017296</v>
+        <v>-46.8954761</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Segunda às 5:00. Probabilidade: 0.36</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 5:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em BARROCA</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -786,28 +786,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>ARLINDO GOMES BRANQUINHO</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.3630222</v>
+        <v>-16.3724496</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8958547</v>
+        <v>-46.9003549</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Segunda às 6:00. Probabilidade: 0.52</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 6:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -831,28 +831,26 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ITAPUA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>JOAO PINHEIRO</t>
-        </is>
+          <t>DIVINEIA</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v/>
       </c>
       <c r="G9" t="n">
-        <v>-16.3530837</v>
+        <v>-16.3707763</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.9045346</v>
+        <v>-46.8960948</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Segunda às 7:00. Probabilidade: 0.54</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 7:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em ITAPUA</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -876,28 +874,28 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>PATOS DE MINAS</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.3578758</v>
+        <v>-16.3654531</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.8977027</v>
+        <v>-46.8922725</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Segunda às 8:00. Probabilidade: 0.38</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 8:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -926,18 +924,18 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>DJALMA TORRES</t>
+          <t>OLARIA</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.3578758</v>
+        <v>-16.3539694</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.8967347</v>
+        <v>-46.8960999</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Segunda às 9:00. Probabilidade: 0.37</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 9:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -966,28 +964,28 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO DOIS</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AGUAS MARINHAS</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.3731448</v>
+        <v>-16.3508715</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.8996636</v>
+        <v>-46.8893616</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Segunda às 10:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 10:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1011,28 +1009,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BARROCA</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PRESIDENTE CASTELO BRANCO</t>
+          <t>FREI ANSELMO</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.3701057</v>
+        <v>-16.3707032</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.9017296</v>
+        <v>-46.8928437</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Segunda às 11:00. Probabilidade: 0.39</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 11:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em BARROCA</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1056,28 +1054,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ALBA GONZAGA</t>
+          <t>ABAETE</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.36506</v>
+        <v>-16.3620327</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.9012748</v>
+        <v>-46.8904846</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Segunda às 12:00. Probabilidade: 0.46</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 12:00. Probabilidade: 0.91</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1101,28 +1099,28 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>DELVITO ALVES DA SILVA</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.3580464</v>
+        <v>-16.3747293</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.9039224</v>
+        <v>-46.8906148</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Segunda às 13:00. Probabilidade: 0.45</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 13:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1146,28 +1144,28 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>LEAO LARA</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-16.3569267</v>
+        <v>-16.3789051</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.9039224</v>
+        <v>-46.8919557</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Segunda às 14:00. Probabilidade: 0.44</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 14:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1181,17 +1179,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1200,19 +1198,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.3550978</v>
+        <v>-16.3699004</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.9012748</v>
+        <v>-46.8939328</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Segunda às 15:00. Probabilidade: 0.44</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 16:00. Probabilidade: 0.91</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1226,38 +1224,36 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CENTRO</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>BURITIS</t>
-        </is>
+          <t>POLITECNICA</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v/>
       </c>
       <c r="G18" t="n">
-        <v>-16.3580464</v>
+        <v>-16.3513455</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.8999924</v>
+        <v>-46.8830303</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Segunda às 16:00. Probabilidade: 0.43</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 17:00. Probabilidade: 0.93</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em POLITECNICA</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1271,38 +1267,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>18:20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>POLITECNICA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ALBA GONZAGA</t>
+          <t>DAS OLARIAS</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.3629615</v>
+        <v>-16.3500924</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.9009258</v>
+        <v>-46.8832718</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Segunda às 17:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 18:00. Probabilidade: 0.93</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em POLITECNICA</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1316,38 +1312,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AGUA BRANCA DOIS</t>
+          <t>SANTA LUZIA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PARDAIS</t>
+          <t>ANTONIO BROCHADO</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.3408439</v>
+        <v>-16.3725676</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.8956847</v>
+        <v>-46.8893259</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Alta probabilidade de HOMICIDIO na região no Segunda às 18:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 20:00. Probabilidade: 0.94</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
+          <t>Patrulhamento preventivo em SANTA LUZIA</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1361,38 +1357,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TERRA NOVA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CHICO CURRAL VELHO</t>
+          <t>DJALMA TORRES</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.3386311</v>
+        <v>-16.350702</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.9051241</v>
+        <v>-46.8914578</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Segunda às 19:00. Probabilidade: 0.54</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 21:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em TERRA NOVA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1406,38 +1402,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>22:20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>INVÁLIDO</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>DJALMA TORRES</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.3578758</v>
+        <v>-16.3816358</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.8967347</v>
+        <v>-46.8962363</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Segunda às 20:00. Probabilidade: 0.41</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 22:00. Probabilidade: 0.93</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em INVÁLIDO</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1451,131 +1447,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>23:20</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO DOIS</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AGUAS MARINHAS</t>
+          <t>LUIZ ALVES</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-16.3708733</v>
+        <v>-16.353214</v>
       </c>
       <c r="H23" t="n">
-        <v>-46.900479</v>
+        <v>-46.8899804</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Segunda às 21:00. Probabilidade: 0.41</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 23:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>22:20</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>CENTRO</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>GERSON RODRIGUES GONDIM</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>-16.3580464</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-46.8999924</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Segunda às 22:00. Probabilidade: 0.40</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>23:20</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>AGUA BRANCA DOIS</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>PARDAIS</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>-16.3408439</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-46.9019975</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de HOMICIDIO na região no Segunda às 23:00. Probabilidade: 0.47</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1600,12 +1506,12 @@
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="22.8" customWidth="1" min="5" max="5"/>
-    <col width="34.8" customWidth="1" min="6" max="6"/>
-    <col width="15.6" customWidth="1" min="7" max="7"/>
+    <col width="40.8" customWidth="1" min="5" max="5"/>
+    <col width="36" customWidth="1" min="6" max="6"/>
+    <col width="21.6" customWidth="1" min="7" max="7"/>
     <col width="15.6" customWidth="1" min="8" max="8"/>
-    <col width="112.8" customWidth="1" min="9" max="9"/>
-    <col width="56.4" customWidth="1" min="10" max="10"/>
+    <col width="93.59999999999999" customWidth="1" min="9" max="9"/>
+    <col width="74.39999999999999" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -1685,28 +1591,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AGUA BRANCA DOIS</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PARDAIS</t>
+          <t>NOVA</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.3408439</v>
+        <v>-16.3561121</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.8956847</v>
+        <v>-46.894195</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Terça às 0:00. Probabilidade: 0.32</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 0:00. Probabilidade: 0.83</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -1730,28 +1636,28 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BARROCA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PRESIDENTE CASTELO BRANCO</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.3701057</v>
+        <v>-16.3520872</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.9017296</v>
+        <v>-46.8940231</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Terça às 1:00. Probabilidade: 0.36</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 1:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em BARROCA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -1775,28 +1681,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>ACUCENAS</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.3554598</v>
+        <v>-16.3691097</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.9032221</v>
+        <v>-46.893842</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Terça às 2:00. Probabilidade: 0.48</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 2:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -1820,28 +1726,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>COMPANHIA DE DISTRITO INDUSTRIAL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VIRGILIO JUSTINIANO RIBEIRO</t>
+          <t>OLARIA</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.3569267</v>
+        <v>-16.3496702</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.9012748</v>
+        <v>-46.8864003</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Terça às 3:00. Probabilidade: 0.48</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 3:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em COMPANHIA DE DISTRITO INDUSTRIAL</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -1865,28 +1771,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>FREI ANSELMO</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.3578758</v>
+        <v>-16.370733</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.8967347</v>
+        <v>-46.8938208</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Terça às 4:00. Probabilidade: 0.40</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 4:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -1910,28 +1816,28 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SANTA CLARA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>LEAO ROCHA</t>
+          <t>SANTA LUZIA</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-16.2889972</v>
+        <v>-16.3555937</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.9026617</v>
+        <v>-46.8941417</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Terça às 5:00. Probabilidade: 0.51</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 5:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA CLARA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -1955,28 +1861,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AGUA BRANCA DOIS</t>
+          <t>INVÁLIDO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>UNAI</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.3423364</v>
+        <v>-16.3816358</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8956847</v>
+        <v>-46.8839828</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Terça às 6:00. Probabilidade: 0.37</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 6:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
+          <t>Patrulhamento preventivo em INVÁLIDO</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -2000,28 +1906,28 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ALBA GONZAGA</t>
+          <t>CASTRO ALVES</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-16.3629615</v>
+        <v>-16.3737562</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.9039224</v>
+        <v>-46.8901806</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Terça às 7:00. Probabilidade: 0.48</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 7:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -2045,28 +1951,28 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>VIRGILIO JUSTINIANO RIBEIRO</t>
+          <t>LIRIOS</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.3550978</v>
+        <v>-16.3672763</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.8996242</v>
+        <v>-46.8925128</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Terça às 8:00. Probabilidade: 0.48</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 8:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -2090,28 +1996,28 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MAMOEIRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ANTONIO FRANCISCO BARBOSA</t>
+          <t>RUA DJALMA TORRES</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.2954644</v>
+        <v>-16.3562869</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.9031705</v>
+        <v>-46.8961988</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Terça às 9:00. Probabilidade: 0.53</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 9:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -2135,28 +2041,28 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MAMOEIRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>EVA APARECIDA DA SILVA</t>
+          <t>ANTONIO BROCHADO</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.297578</v>
+        <v>-16.354695591471</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.9018028</v>
+        <v>-46.891216</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Terça às 10:00. Probabilidade: 0.53</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 10:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -2180,28 +2086,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO DOIS</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>SAO JOAO</t>
+          <t>CASTRO ALVES</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.3731448</v>
+        <v>-16.3731939</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.900479</v>
+        <v>-46.8971407</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Terça às 11:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 11:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -2225,28 +2131,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>EDUARDO RODRIGUES BARBOSA</t>
+          <t>FRANCISCO RODRIGUES DA SILVA</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.3554598</v>
+        <v>-16.3669978</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.901516</v>
+        <v>-46.8936593</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Terça às 12:00. Probabilidade: 0.46</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 12:00. Probabilidade: 0.91</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -2270,28 +2176,28 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SABARA</t>
+          <t>DULCE TORRES BROCHADO</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.3665317</v>
+        <v>-16.3535028</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.8956223</v>
+        <v>-46.8947452</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Terça às 13:00. Probabilidade: 0.49</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 13:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -2315,28 +2221,28 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MAMOEIRO</t>
+          <t>SANTA LUZIA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>EVA APARECIDA DA SILVA</t>
+          <t>TUCUNARE</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-16.2999368</v>
+        <v>-16.3725676</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.9061331</v>
+        <v>-46.8895017</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Terça às 14:00. Probabilidade: 0.53</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 14:00. Probabilidade: 0.91</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
+          <t>Patrulhamento preventivo em SANTA LUZIA</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -2360,28 +2266,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO DOIS</t>
+          <t>INVÁLIDO</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SAO JOAO</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.3731448</v>
+        <v>-16.38426</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.900479</v>
+        <v>-46.8839828</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Terça às 15:00. Probabilidade: 0.39</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 15:00. Probabilidade: 0.91</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
+          <t>Patrulhamento preventivo em INVÁLIDO</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -2405,28 +2311,28 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AGUA BRANCA DOIS</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>PARDAIS</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-16.3408439</v>
+        <v>-16.3690893</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.9019975</v>
+        <v>-46.8934394</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Terça às 16:00. Probabilidade: 0.39</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 16:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -2450,28 +2356,28 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO DOIS</t>
+          <t>VALE VERDE</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SAO JOAO</t>
+          <t>OLAVO FRANCISCO OLIVEIRA</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.3731448</v>
+        <v>-16.356573</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.900479</v>
+        <v>-46.8844753</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Terça às 17:00. Probabilidade: 0.39</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 17:00. Probabilidade: 0.92</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
+          <t>Patrulhamento preventivo em VALE VERDE</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -2495,28 +2401,28 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>CELINA LISBOA FREDERICO</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.3541391</v>
+        <v>-16.352639</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.8993053</v>
+        <v>-46.8913573</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Terça às 18:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 18:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -2540,28 +2446,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>GERSON RODRIGUES GONDIM</t>
+          <t>CAPITAO CARLOS GONZAGA</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.3541391</v>
+        <v>-16.3562869</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.9032095</v>
+        <v>-46.8871824</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Terça às 19:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 19:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -2585,28 +2491,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>ANTONIO BROCHADO</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.3578758</v>
+        <v>-16.3622644</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.8977027</v>
+        <v>-46.8908353</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Terça às 20:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 20:00. Probabilidade: 0.93</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -2630,28 +2536,28 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>CAMELIAS</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-16.3640593</v>
+        <v>-16.3670603</v>
       </c>
       <c r="H23" t="n">
-        <v>-46.9039224</v>
+        <v>-46.8917672</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Terça às 21:00. Probabilidade: 0.40</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 21:00. Probabilidade: 0.92</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -2675,28 +2581,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>BELA VISTA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SABARA</t>
+          <t>ITAPUA</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-16.3630222</v>
+        <v>-16.3790706</v>
       </c>
       <c r="H24" t="n">
-        <v>-46.8956223</v>
+        <v>-46.8851257</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Terça às 22:00. Probabilidade: 0.44</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 22:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em BELA VISTA</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -2720,28 +2626,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ITAPUA</t>
+          <t>INVÁLIDO</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>VENINA RAMOS AGUIAR</t>
+          <t>CURITIBA</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-16.3545916</v>
+        <v>-16.3798658</v>
       </c>
       <c r="H25" t="n">
-        <v>-46.9020118</v>
+        <v>-46.8805207</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Terça às 23:00. Probabilidade: 0.47</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 23:00. Probabilidade: 0.92</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em ITAPUA</t>
+          <t>Patrulhamento preventivo em INVÁLIDO</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -2769,12 +2675,12 @@
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="22.8" customWidth="1" min="5" max="5"/>
-    <col width="32.4" customWidth="1" min="6" max="6"/>
-    <col width="15.6" customWidth="1" min="7" max="7"/>
+    <col width="15.6" customWidth="1" min="5" max="5"/>
+    <col width="36" customWidth="1" min="6" max="6"/>
+    <col width="16.8" customWidth="1" min="7" max="7"/>
     <col width="15.6" customWidth="1" min="8" max="8"/>
-    <col width="114" customWidth="1" min="9" max="9"/>
-    <col width="56.4" customWidth="1" min="10" max="10"/>
+    <col width="94.8" customWidth="1" min="9" max="9"/>
+    <col width="49.2" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -2854,28 +2760,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MAMOEIRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ANTONIO FRANCISCO BARBOSA</t>
+          <t>LUIZ ALVES</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.2954644</v>
+        <v>-16.3498958</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.9061331</v>
+        <v>-46.8914578</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quarta às 0:00. Probabilidade: 0.47</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 0:00. Probabilidade: 0.83</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -2899,28 +2805,28 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>CASTRO ALVES</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.3580464</v>
+        <v>-16.37686111</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.9039224</v>
+        <v>-46.8926462</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quarta às 1:00. Probabilidade: 0.46</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 1:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -2944,28 +2850,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>PRIMAVERA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SABARA</t>
+          <t>PARA</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.3647673</v>
+        <v>-16.3605282</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.8968304</v>
+        <v>-46.8859188</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quarta às 2:00. Probabilidade: 0.48</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 2:00. Probabilidade: 0.83</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -2989,28 +2895,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>DOM BOSCO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>PATOS DE MINAS</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.3578758</v>
+        <v>-16.3633591</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.8967347</v>
+        <v>-46.8891735</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quarta às 3:00. Probabilidade: 0.40</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 3:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em DOM BOSCO</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -3034,28 +2940,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>NOVO JARDIM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>GEOVANINA VALADARES VERSIANI</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.3540281</v>
+        <v>-16.3650863</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.8977027</v>
+        <v>-46.8849008</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quarta às 4:00. Probabilidade: 0.40</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 4:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em NOVO JARDIM</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -3079,28 +2985,26 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AGUA BRANCA DOIS</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>PARDAIS</t>
-        </is>
+          <t>CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v/>
       </c>
       <c r="G7" t="n">
-        <v>-16.3408439</v>
+        <v>-16.3542222</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.9019975</v>
+        <v>-46.8967878</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quarta às 5:00. Probabilidade: 0.36</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 5:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -3124,28 +3028,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.3580464</v>
+        <v>-16.3499812</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.9012748</v>
+        <v>-46.8914578</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quarta às 6:00. Probabilidade: 0.47</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 6:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -3169,28 +3073,28 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AGUA BRANCA DOIS</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>PARDAIS</t>
+          <t>VEREADOR JOAO NARCISO</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-16.3423364</v>
+        <v>-16.3519454</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.9019975</v>
+        <v>-46.8857307</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quarta às 7:00. Probabilidade: 0.37</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 7:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -3214,28 +3118,28 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DJALMA TORRES</t>
+          <t>PATOS DE MINAS</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.3540281</v>
+        <v>-16.3654765</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.8977027</v>
+        <v>-46.8922494</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quarta às 8:00. Probabilidade: 0.39</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 8:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -3259,28 +3163,28 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ALBA GONZAGA</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.3541391</v>
+        <v>-16.3708562</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.8996242</v>
+        <v>-46.8901806</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quarta às 9:00. Probabilidade: 0.47</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 9:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -3304,28 +3208,28 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>PATOS DE MINAS</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.3630222</v>
+        <v>-16.3595151</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.8958547</v>
+        <v>-46.8887882</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quarta às 10:00. Probabilidade: 0.49</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 10:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em CANABRAVA</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -3349,28 +3253,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO DOIS</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AGUAS MARINHAS</t>
+          <t>SANTA LUZIA</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.3731448</v>
+        <v>-16.3517224</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.8996636</v>
+        <v>-46.891383</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quarta às 11:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 11:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -3394,28 +3298,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>VALE VERDE</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>DULCE TORRES BROCHADO</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.3665317</v>
+        <v>-16.3570556</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.8968304</v>
+        <v>-46.8873763</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quarta às 12:00. Probabilidade: 0.49</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 12:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em VALE VERDE</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -3439,28 +3343,28 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MAMOEIRO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>JONAS DE SOUZA PORTO</t>
+          <t>PREFEITO JOAO COSTA</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.3017335</v>
+        <v>-16.3780253</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.9031705</v>
+        <v>-46.8906887</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quarta às 13:00. Probabilidade: 0.51</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 13:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -3484,28 +3388,28 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ITAPUA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>VENINA RAMOS AGUIAR</t>
+          <t>CELINA LISBOA FREDERICO</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-16.3530837</v>
+        <v>-16.3542222</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.9045346</v>
+        <v>-46.8900997</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quarta às 14:00. Probabilidade: 0.50</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 14:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em ITAPUA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -3529,28 +3433,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MAMOEIRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>EVA APARECIDA DA SILVA</t>
+          <t>PEDRO AGUIAR</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.3017335</v>
+        <v>-16.3546939</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.9041868</v>
+        <v>-46.888402</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quarta às 15:00. Probabilidade: 0.51</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 15:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -3574,28 +3478,28 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SANTA CLARA</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>LEAO ROCHA</t>
+          <t>CAMPOS DO JORDAO</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-16.2889972</v>
+        <v>-16.3787445</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.9026617</v>
+        <v>-46.8930764</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quarta às 16:00. Probabilidade: 0.51</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 16:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA CLARA</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -3619,28 +3523,28 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>DULCE TORRES BROCHADO</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.3647673</v>
+        <v>-16.3519454</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.8958547</v>
+        <v>-46.8895809</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quarta às 17:00. Probabilidade: 0.47</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 17:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -3664,28 +3568,28 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BARROCA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PRESIDENTE CASTELO BRANCO</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.3701057</v>
+        <v>-16.3562869</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.9017296</v>
+        <v>-46.895454</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quarta às 18:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 18:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em BARROCA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -3709,28 +3613,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>BARROCA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PRESIDENTE CASTELO BRANCO</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.3701057</v>
+        <v>-16.3523461</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.9017296</v>
+        <v>-46.885533</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quarta às 19:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 19:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em BARROCA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -3754,28 +3658,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>BELA VISTA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>BURITIS</t>
+          <t>CUSTODIO MAIA</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.3550978</v>
+        <v>-16.3812023</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.9039224</v>
+        <v>-46.8862246</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quarta às 20:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 20:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em BELA VISTA</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -3799,28 +3703,28 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>PRINCESA ISABEL</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-16.3630222</v>
+        <v>-16.3689007</v>
       </c>
       <c r="H23" t="n">
-        <v>-46.8956223</v>
+        <v>-46.8917747</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quarta às 21:00. Probabilidade: 0.45</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 21:00. Probabilidade: 0.92</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -3844,28 +3748,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO DOIS</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SAO JOAO</t>
+          <t>CAMPOS DO JORDAO</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-16.3708733</v>
+        <v>-16.3723486</v>
       </c>
       <c r="H24" t="n">
-        <v>-46.8996636</v>
+        <v>-46.8935253</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quarta às 22:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 22:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -3889,28 +3793,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-16.3580464</v>
+        <v>-16.353214</v>
       </c>
       <c r="H25" t="n">
-        <v>-46.8999924</v>
+        <v>-46.8915566</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quarta às 23:00. Probabilidade: 0.40</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 23:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -3938,12 +3842,12 @@
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="34.8" customWidth="1" min="6" max="6"/>
-    <col width="15.6" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="28.8" customWidth="1" min="6" max="6"/>
+    <col width="16.8" customWidth="1" min="7" max="7"/>
     <col width="15.6" customWidth="1" min="8" max="8"/>
-    <col width="114" customWidth="1" min="9" max="9"/>
-    <col width="55.2" customWidth="1" min="10" max="10"/>
+    <col width="94.8" customWidth="1" min="9" max="9"/>
+    <col width="63.59999999999999" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -4023,28 +3927,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SABARA</t>
+          <t>PEDRO AGUIAR</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.3665317</v>
+        <v>-16.3562869</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.8958547</v>
+        <v>-46.8945138</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quinta às 0:00. Probabilidade: 0.44</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 0:00. Probabilidade: 0.82</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -4068,28 +3972,28 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SABARA</t>
+          <t>ANTONIO BROCHADO</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.3630222</v>
+        <v>-16.3512375</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.8968304</v>
+        <v>-46.895032</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quinta às 1:00. Probabilidade: 0.45</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 1:00. Probabilidade: 0.82</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -4113,28 +4017,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>VALE VERDE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>VIRGILIO JUSTINIANO RIBEIRO</t>
+          <t>QUERO QUERO</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.3569267</v>
+        <v>-16.3564944</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.8993053</v>
+        <v>-46.8871167</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quinta às 2:00. Probabilidade: 0.45</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 2:00. Probabilidade: 0.78</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em VALE VERDE</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -4158,28 +4062,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>FREI CECILIO</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.3630222</v>
+        <v>-16.3544539</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.8968304</v>
+        <v>-46.8914578</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quinta às 3:00. Probabilidade: 0.46</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 3:00. Probabilidade: 0.83</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -4203,28 +4107,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AGUA BRANCA DOIS</t>
+          <t>POLITECNICA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>UNAI</t>
+          <t>VEREADOR JOAO NARCISO</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.3423364</v>
+        <v>-16.3494933</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.8956847</v>
+        <v>-46.884495</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quinta às 4:00. Probabilidade: 0.34</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 4:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
+          <t>Patrulhamento preventivo em POLITECNICA</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -4248,28 +4152,28 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>GERSON RODRIGUES GONDIM</t>
+          <t>PRINCESA ISABEL</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-16.3554598</v>
+        <v>-16.3689007</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.9039224</v>
+        <v>-46.8917672</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quinta às 5:00. Probabilidade: 0.46</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 5:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -4293,28 +4197,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>VIRGILIO JUSTINIANO RIBEIRO</t>
+          <t>PATOS DE MINAS</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.3640593</v>
+        <v>-16.3626314</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.9032095</v>
+        <v>-46.8907448</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quinta às 6:00. Probabilidade: 0.46</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 6:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -4338,28 +4242,26 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>ORQUIDEAS</t>
-        </is>
+          <t>NOVA DIVINEIA</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v/>
       </c>
       <c r="G9" t="n">
-        <v>-16.3665317</v>
+        <v>-16.36513889</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.8958547</v>
+        <v>-46.8905076</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quinta às 7:00. Probabilidade: 0.47</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 7:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em NOVA DIVINEIA</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -4383,28 +4285,28 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>ANTONIO BROCHADO</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.3578758</v>
+        <v>-16.3603317</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.8967347</v>
+        <v>-46.8912493</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quinta às 8:00. Probabilidade: 0.39</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 8:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -4428,28 +4330,28 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BARROCA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PRESIDENTE CASTELO BRANCO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.3701057</v>
+        <v>-16.3528303</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.9017296</v>
+        <v>-46.8871824</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quinta às 9:00. Probabilidade: 0.37</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 9:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em BARROCA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -4473,28 +4375,28 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>VIRGILIO JUSTINIANO RIBEIRO</t>
+          <t>CAPITAO CARLOS GONZAGA</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.3561114</v>
+        <v>-16.354542</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.9032221</v>
+        <v>-46.8888683</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quinta às 10:00. Probabilidade: 0.46</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 10:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -4518,28 +4420,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>INVÁLIDO</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>GERSON RODRIGUES GONDIM</t>
+          <t>CAPIM BRANCO</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.36506</v>
+        <v>-16.3679913</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.9032095</v>
+        <v>-46.8806916</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quinta às 11:00. Probabilidade: 0.46</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 11:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em INVÁLIDO</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -4563,28 +4465,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>CAPITAO CARLOS GONZAGA</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.36506</v>
+        <v>-16.3540446</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.8999924</v>
+        <v>-46.886386</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quinta às 12:00. Probabilidade: 0.45</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 12:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -4608,28 +4510,28 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SANTA CLARA</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>LEAO ROCHA</t>
+          <t>FREI ANSELMO</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.2889972</v>
+        <v>-16.3751678</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.9026617</v>
+        <v>-46.8888532</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quinta às 13:00. Probabilidade: 0.47</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 13:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA CLARA</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -4653,28 +4555,26 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CENTRO</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>GOVERNADOR VALADARES</t>
-        </is>
+          <t>DIVINEIA</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v/>
       </c>
       <c r="G16" t="n">
-        <v>-16.36506</v>
+        <v>-16.3737562</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.8993053</v>
+        <v>-46.8943894</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quinta às 14:00. Probabilidade: 0.45</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 14:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -4698,28 +4598,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AGUA BRANCA DOIS</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>UNAI</t>
+          <t>VEREADOR JOAO NARCISO</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.3423364</v>
+        <v>-16.356534</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.9019975</v>
+        <v>-46.8897568</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quinta às 15:00. Probabilidade: 0.41</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 15:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -4743,28 +4643,28 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SABARA</t>
+          <t>CASTRO ALVES</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-16.3647673</v>
+        <v>-16.3743031</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.8958547</v>
+        <v>-46.896081</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quinta às 16:00. Probabilidade: 0.47</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 16:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -4788,28 +4688,28 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>LISBOA</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.36506</v>
+        <v>-16.3746072</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.901516</v>
+        <v>-46.8943894</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quinta às 17:00. Probabilidade: 0.44</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 17:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -4833,28 +4733,28 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ITAPUA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>VENINA RAMOS AGUIAR</t>
+          <t>OLARIA</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.3545916</v>
+        <v>-16.3520872</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.9045346</v>
+        <v>-46.8961657</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quinta às 18:00. Probabilidade: 0.48</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 18:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em ITAPUA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -4878,28 +4778,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MAMOEIRO</t>
+          <t>DOM BOSCO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>JONAS DE SOUZA PORTO</t>
+          <t>PROFESSORA OLIVIA</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.3017335</v>
+        <v>-16.3611248</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.9018028</v>
+        <v>-46.8880712</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quinta às 19:00. Probabilidade: 0.49</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 19:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
+          <t>Patrulhamento preventivo em DOM BOSCO</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -4923,28 +4823,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>AGUAS CLARAS</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>DJALMA TORRES</t>
+          <t>BENTO DIAS PEREIRA</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.3540281</v>
+        <v>-16.3768505</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.8977027</v>
+        <v>-46.8946103</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quinta às 20:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 20:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em AGUAS CLARAS</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -4968,28 +4868,28 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ALDEIA</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-16.3550978</v>
+        <v>-16.3562645</v>
       </c>
       <c r="H23" t="n">
-        <v>-46.9032221</v>
+        <v>-46.8928643</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quinta às 21:00. Probabilidade: 0.41</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 21:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -5013,28 +4913,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AGUA BRANCA DOIS</t>
+          <t>PRIMAVERA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>UNAI</t>
+          <t>RORAIMA</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-16.3423364</v>
+        <v>-16.36222222</v>
       </c>
       <c r="H24" t="n">
-        <v>-46.9019975</v>
+        <v>-46.8826729</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Quinta às 22:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 22:00. Probabilidade: 0.93</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -5058,28 +4958,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>BELA VISTA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>ITAOCA</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-16.3541391</v>
+        <v>-16.3787176</v>
       </c>
       <c r="H25" t="n">
-        <v>-46.9039224</v>
+        <v>-46.8840942</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Quinta às 23:00. Probabilidade: 0.40</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 23:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em BELA VISTA</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -5107,12 +5007,12 @@
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="22.8" customWidth="1" min="5" max="5"/>
-    <col width="32.4" customWidth="1" min="6" max="6"/>
+    <col width="26.4" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
     <col width="15.6" customWidth="1" min="7" max="7"/>
     <col width="15.6" customWidth="1" min="8" max="8"/>
-    <col width="112.8" customWidth="1" min="9" max="9"/>
-    <col width="56.4" customWidth="1" min="10" max="10"/>
+    <col width="93.59999999999999" customWidth="1" min="9" max="9"/>
+    <col width="60" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -5192,28 +5092,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>SOUZA LIMA</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.3640593</v>
+        <v>-16.3715697</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.9039224</v>
+        <v>-46.8955711</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 0:00. Probabilidade: 0.41</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 0:00. Probabilidade: 0.82</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -5237,28 +5137,28 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>DELVITO ALVES DA SILVA</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.3665317</v>
+        <v>-16.3723486</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.8958547</v>
+        <v>-46.8950215</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 1:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 1:00. Probabilidade: 0.82</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -5282,28 +5182,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MAMOEIRO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>JONAS DE SOUZA PORTO</t>
+          <t>SANTOS DUMONT</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.2999368</v>
+        <v>-16.3751398</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.9031705</v>
+        <v>-46.891731</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 2:00. Probabilidade: 0.41</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 2:00. Probabilidade: 0.83</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -5327,28 +5227,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>SANTOS DUMONT</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.3561114</v>
+        <v>-16.3773513</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.9032221</v>
+        <v>-46.8941875</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 3:00. Probabilidade: 0.43</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 3:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -5372,28 +5272,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO DOIS</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AGUAS MARINHAS</t>
+          <t>PREFEITO JOAO COSTA</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.3708733</v>
+        <v>-16.376113</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.900479</v>
+        <v>-46.8876041</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 4:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 4:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -5417,28 +5317,28 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MAMOEIRO</t>
+          <t>POLITECNICA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EVA APARECIDA DA SILVA</t>
+          <t>CELINA LISBOA FREDERICO</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-16.2999368</v>
+        <v>-16.3494933</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.9018028</v>
+        <v>-46.8841169</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 5:00. Probabilidade: 0.43</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 5:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
+          <t>Patrulhamento preventivo em POLITECNICA</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -5462,28 +5362,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>FREI SUPRIANO</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.3580464</v>
+        <v>-16.3595823</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.9009258</v>
+        <v>-46.8887522</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 6:00. Probabilidade: 0.44</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 6:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em CANABRAVA</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -5507,28 +5407,28 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>VALE VERDE</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>BENEDITO CAETANO COSTA</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-16.3647673</v>
+        <v>-16.3568941</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.8956223</v>
+        <v>-46.8866379</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 7:00. Probabilidade: 0.45</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 7:00. Probabilidade: 0.83</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em VALE VERDE</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -5552,28 +5452,28 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ITAPUA</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>VENINA RAMOS AGUIAR</t>
+          <t>PATOS DE MINAS</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.3530837</v>
+        <v>-16.3664376</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.9020118</v>
+        <v>-46.8926257</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 8:00. Probabilidade: 0.46</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 8:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em ITAPUA</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -5597,28 +5497,28 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>PRIMAVERA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.3580464</v>
+        <v>-16.3605282</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.9012748</v>
+        <v>-46.8853581</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 9:00. Probabilidade: 0.45</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 9:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -5642,28 +5542,28 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AGUA BRANCA DOIS</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>UNAI</t>
+          <t>SOUZA LIMA</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.3423364</v>
+        <v>-16.3707763</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.8956847</v>
+        <v>-46.89369</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Sexta às 10:00. Probabilidade: 0.38</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 10:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -5687,28 +5587,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>INVÁLIDO</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>BURITIS</t>
+          <t>JOSE ANTONIO SOARES</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.3554598</v>
+        <v>-16.3494752</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.901516</v>
+        <v>-46.8806916</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 11:00. Probabilidade: 0.45</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 11:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em INVÁLIDO</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -5732,28 +5632,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>INVÁLIDO</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>DJALMA TORRES</t>
+          <t>CAPIM BRANCO</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.3540281</v>
+        <v>-16.3679913</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.8977027</v>
+        <v>-46.88553</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 12:00. Probabilidade: 0.38</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 12:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em INVÁLIDO</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -5777,28 +5677,28 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SABARA</t>
+          <t>SERRA</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.3630222</v>
+        <v>-16.3547402</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.8956223</v>
+        <v>-46.8881753</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 13:00. Probabilidade: 0.46</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 13:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -5822,28 +5722,28 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AGUA BRANCA DOIS</t>
+          <t>SANTA LUZIA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>UNAI</t>
+          <t>FILADELFO SOUZA PINTO</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-16.3423364</v>
+        <v>-16.3725676</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.8956847</v>
+        <v>-46.8891524</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Sexta às 14:00. Probabilidade: 0.41</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 14:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
+          <t>Patrulhamento preventivo em SANTA LUZIA</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -5867,28 +5767,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO DOIS</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AGUAS MARINHAS</t>
+          <t>FREI ANSELMO</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.3731448</v>
+        <v>-16.3701267</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.8996636</v>
+        <v>-46.8930764</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 15:00. Probabilidade: 0.41</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 15:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -5912,28 +5812,28 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>PRIMAVERA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>TINGUIZEIROS</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-16.3665317</v>
+        <v>-16.3624701</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.8958547</v>
+        <v>-46.8833808</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 16:00. Probabilidade: 0.46</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 16:00. Probabilidade: 0.91</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -5957,28 +5857,28 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>EDUARDO RODRIGUES BARBOSA</t>
+          <t>FREI ANSELMO</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.3561114</v>
+        <v>-16.3690893</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.901516</v>
+        <v>-46.8882222</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 17:00. Probabilidade: 0.43</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 17:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -6002,28 +5902,28 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>SANTA LUZIA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SABARA</t>
+          <t>JOAO DORIA</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.3665317</v>
+        <v>-16.3688774</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.8956223</v>
+        <v>-46.8873725</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 18:00. Probabilidade: 0.45</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 18:00. Probabilidade: 0.91</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em SANTA LUZIA</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -6047,28 +5947,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>LOTEAMENTO RIO PRETO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BURITIS</t>
+          <t>CAPITAO CARLOS GONZAGA</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.3580464</v>
+        <v>-16.3512835</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.8993053</v>
+        <v>-46.8943109</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 19:00. Probabilidade: 0.43</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 19:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em LOTEAMENTO RIO PRETO</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -6092,28 +5992,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SANTA CLARA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>LEAO ROCHA</t>
+          <t>CAICARA</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.2889972</v>
+        <v>-16.3527639</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.9026617</v>
+        <v>-46.8890279</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 20:00. Probabilidade: 0.46</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 20:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA CLARA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -6137,28 +6037,28 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>DULCE TORRES BROCHADO</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-16.3629615</v>
+        <v>-16.3562234</v>
       </c>
       <c r="H23" t="n">
-        <v>-46.9009258</v>
+        <v>-46.8914578</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 21:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 21:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -6182,28 +6082,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>VINTE E UM DE ABRIL</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-16.3647673</v>
+        <v>-16.3547402</v>
       </c>
       <c r="H24" t="n">
-        <v>-46.8958547</v>
+        <v>-46.89318</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sexta às 22:00. Probabilidade: 0.44</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 22:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -6227,28 +6127,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AGUA BRANCA DOIS</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>UNAI</t>
+          <t>DJALMA TORRES</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-16.3423364</v>
+        <v>-16.3552952</v>
       </c>
       <c r="H25" t="n">
-        <v>-46.9019975</v>
+        <v>-46.8871824</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Sexta às 23:00. Probabilidade: 0.43</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 23:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -6276,12 +6176,12 @@
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
     <col width="36" customWidth="1" min="6" max="6"/>
-    <col width="15.6" customWidth="1" min="7" max="7"/>
-    <col width="15.6" customWidth="1" min="8" max="8"/>
-    <col width="114" customWidth="1" min="9" max="9"/>
-    <col width="55.2" customWidth="1" min="10" max="10"/>
+    <col width="16.8" customWidth="1" min="7" max="7"/>
+    <col width="16.8" customWidth="1" min="8" max="8"/>
+    <col width="94.8" customWidth="1" min="9" max="9"/>
+    <col width="63.59999999999999" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -6361,28 +6261,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>PRIMAVERA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.3640593</v>
+        <v>-16.359545</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.9039224</v>
+        <v>-46.88327778</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sábado às 0:00. Probabilidade: 0.38</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 0:00. Probabilidade: 0.75</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -6406,28 +6306,28 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>PRIMAVERA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>VIRGILIO JUSTINIANO RIBEIRO</t>
+          <t>PARA</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.3550978</v>
+        <v>-16.3608802</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.9039224</v>
+        <v>-46.8868478</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sábado às 1:00. Probabilidade: 0.39</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 1:00. Probabilidade: 0.76</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -6451,28 +6351,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ALBA GONZAGA</t>
+          <t>SANTA LUZIA</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.3541391</v>
+        <v>-16.35427778</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.9032221</v>
+        <v>-46.89066667</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sábado às 2:00. Probabilidade: 0.40</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 2:00. Probabilidade: 0.80</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -6496,28 +6396,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ALBA GONZAGA</t>
+          <t>FRANCISCO RODRIGUES DA SILVA</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.3580464</v>
+        <v>-16.3668739</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.9032095</v>
+        <v>-46.8917722</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sábado às 3:00. Probabilidade: 0.40</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 3:00. Probabilidade: 0.82</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -6541,28 +6441,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>HORTENCIAS</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.3665317</v>
+        <v>-16.3664376</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.8956223</v>
+        <v>-46.8913709</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sábado às 4:00. Probabilidade: 0.41</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 4:00. Probabilidade: 0.83</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -6586,28 +6486,28 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AGUA BRANCA DOIS</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>UNAI</t>
+          <t>JOAO FRANCISCO SOUZA</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-16.3423364</v>
+        <v>-16.3761781</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.8956847</v>
+        <v>-46.8921974</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Sábado às 5:00. Probabilidade: 0.32</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 5:00. Probabilidade: 0.83</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -6631,28 +6531,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>CAMELIAS</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.3541391</v>
+        <v>-16.3657188</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.9032095</v>
+        <v>-46.8927962</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sábado às 6:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 6:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -6676,28 +6576,28 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>FRANCISCO RODRIGUES DA SILVA</t>
+          <t>CELINA LISBOA FREDERICO</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-16.3630222</v>
+        <v>-16.3519914</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.8956223</v>
+        <v>-46.8958862</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sábado às 7:00. Probabilidade: 0.43</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 7:00. Probabilidade: 0.83</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -6721,28 +6621,28 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MAMOEIRO</t>
+          <t>PRIMAVERA CINCO</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ANTONIO FRANCISCO BARBOSA</t>
+          <t>TAQUARIL</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.2954644</v>
+        <v>-16.357081</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.9018028</v>
+        <v>-46.8821471</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sábado às 8:00. Probabilidade: 0.41</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 8:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
+          <t>Patrulhamento preventivo em PRIMAVERA CINCO</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -6766,28 +6666,28 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ITAPUA</t>
+          <t>AGUAS CLARAS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>JOAO PINHEIRO</t>
+          <t>MARECHAL RONDON</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.3530837</v>
+        <v>-16.3762943</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.9045346</v>
+        <v>-46.8945581</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sábado às 9:00. Probabilidade: 0.43</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 9:00. Probabilidade: 0.82</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em ITAPUA</t>
+          <t>Patrulhamento preventivo em AGUAS CLARAS</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -6811,28 +6711,28 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SANTA CLARA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>LEAO ROCHA</t>
+          <t>CELINA LISBOA FREDERICO</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.2889972</v>
+        <v>-16.352639</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.9026617</v>
+        <v>-46.88619</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Alta probabilidade de EXTORSAO na região no Sábado às 10:00. Probabilidade: 0.46</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 10:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA CLARA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -6856,28 +6756,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>DOM BOSCO</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>SABARA</t>
+          <t>PATOS DE MINAS</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.3665317</v>
+        <v>-16.3637711</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.8968304</v>
+        <v>-46.8876514</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sábado às 11:00. Probabilidade: 0.44</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 11:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em DOM BOSCO</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -6901,28 +6801,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>DOM BOSCO</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FRANCISCO RODRIGUES DA SILVA</t>
+          <t>BUGANVILES</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.3665317</v>
+        <v>-16.3634532</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.8968304</v>
+        <v>-46.8876514</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sábado às 12:00. Probabilidade: 0.44</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 12:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em DOM BOSCO</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -6946,28 +6846,28 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MAMOEIRO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>JONAS DE SOUZA PORTO</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.2999368</v>
+        <v>-16.3737232</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.9018028</v>
+        <v>-46.8918</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sábado às 13:00. Probabilidade: 0.43</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 13:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -6991,28 +6891,28 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AGUA BRANCA DOIS</t>
+          <t>NOVA DIVINEIA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>UNAI</t>
+          <t>JOVINO RODRIGUES SANTANA</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-16.3408439</v>
+        <v>-16.36513889</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.9019975</v>
+        <v>-46.8898279</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Sábado às 14:00. Probabilidade: 0.40</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 14:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em AGUA BRANCA DOIS</t>
+          <t>Patrulhamento preventivo em NOVA DIVINEIA</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -7036,28 +6936,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ALBA GONZAGA</t>
+          <t>TANCREDO NEVES</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.36506</v>
+        <v>-16.3609719</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.9032221</v>
+        <v>-46.8914408</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sábado às 15:00. Probabilidade: 0.43</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 15:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -7086,18 +6986,18 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>DJALMA TORRES</t>
+          <t>LUIZ ALVES</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-16.3540281</v>
+        <v>-16.3516875</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.8977027</v>
+        <v>-46.89718</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Sábado às 16:00. Probabilidade: 0.38</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 16:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -7126,28 +7026,28 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>RAMIRO BORGES</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.3578758</v>
+        <v>-16.3591906</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.8977027</v>
+        <v>-46.8881971</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Sábado às 17:00. Probabilidade: 0.39</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 17:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CANABRAVA</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -7171,28 +7071,28 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ALBA GONZAGA</t>
+          <t>LEVINDO TORRES BROCHADO</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.3580464</v>
+        <v>-16.3562869</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.9032221</v>
+        <v>-46.8947452</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sábado às 18:00. Probabilidade: 0.43</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 18:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -7216,28 +7116,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MAMOEIRO</t>
+          <t>VALE VERDE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>JOAO MORAES PESSOA</t>
+          <t>SERRA</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.3017335</v>
+        <v>-16.3563654</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.9018028</v>
+        <v>-46.8870552</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sábado às 19:00. Probabilidade: 0.45</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 19:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
+          <t>Patrulhamento preventivo em VALE VERDE</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -7261,28 +7161,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TERRA NOVA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CHICO CURRAL VELHO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.3386311</v>
+        <v>-16.3563784</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.9051241</v>
+        <v>-46.8895809</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Alta probabilidade de EXTORSAO na região no Sábado às 20:00. Probabilidade: 0.45</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 20:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em TERRA NOVA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -7306,28 +7206,28 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ITAPUA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>JOAO PINHEIRO</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-16.3530837</v>
+        <v>-16.35572222</v>
       </c>
       <c r="H23" t="n">
-        <v>-46.9020118</v>
+        <v>-46.8927188</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sábado às 21:00. Probabilidade: 0.45</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 21:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em ITAPUA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -7351,28 +7251,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>VIRGILIO JUSTINIANO RIBEIRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-16.3640593</v>
+        <v>-16.3562869</v>
       </c>
       <c r="H24" t="n">
-        <v>-46.9032221</v>
+        <v>-46.8914578</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sábado às 22:00. Probabilidade: 0.41</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 22:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -7396,28 +7296,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SANTA CLARA</t>
+          <t>NOSSA SENHORA DO CARMO</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>LEAO ROCHA</t>
+          <t>TANCREDO NEVES</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-16.2889972</v>
+        <v>-16.3575125</v>
       </c>
       <c r="H25" t="n">
-        <v>-46.9026617</v>
+        <v>-46.8938891</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Sábado às 23:00. Probabilidade: 0.44</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 23:00. Probabilidade: 0.91</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA CLARA</t>
+          <t>Patrulhamento preventivo em NOSSA SENHORA DO CARMO</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -7433,7 +7333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7445,12 +7345,12 @@
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="22.8" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="36" customWidth="1" min="6" max="6"/>
     <col width="15.6" customWidth="1" min="7" max="7"/>
     <col width="15.6" customWidth="1" min="8" max="8"/>
-    <col width="115.2" customWidth="1" min="9" max="9"/>
-    <col width="56.4" customWidth="1" min="10" max="10"/>
+    <col width="96" customWidth="1" min="9" max="9"/>
+    <col width="51.6" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -7530,28 +7430,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MAMOEIRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EVA APARECIDA DA SILVA</t>
+          <t>CAPITAO CARLOS GONZAGA</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.2999368</v>
+        <v>-16.3499812</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.9041868</v>
+        <v>-46.88619</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de EXTORSAO na região no Domingo às 0:00. Probabilidade: 0.47</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 0:00. Probabilidade: 0.77</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -7575,28 +7475,28 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MAMOEIRO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>JONAS DE SOUZA PORTO</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.297578</v>
+        <v>-16.3696973</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.9018028</v>
+        <v>-46.8954761</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alta probabilidade de EXTORSAO na região no Domingo às 1:00. Probabilidade: 0.47</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 1:00. Probabilidade: 0.79</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -7620,28 +7520,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>CASTRO ALVES</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.3630222</v>
+        <v>-16.3723082</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.8968304</v>
+        <v>-46.889259</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Domingo às 2:00. Probabilidade: 0.37</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 2:00. Probabilidade: 0.79</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -7665,28 +7565,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VIRGILIO JUSTINIANO RIBEIRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.3541391</v>
+        <v>-16.356901</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.8993053</v>
+        <v>-46.8948193</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Domingo às 3:00. Probabilidade: 0.38</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 3:00. Probabilidade: 0.79</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -7710,28 +7610,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ITAPUA</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>JOAO PINHEIRO</t>
+          <t>PRINCESA ISABEL</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.3545916</v>
+        <v>-16.3667723</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.9020118</v>
+        <v>-46.8913709</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Alta probabilidade de EXTORSAO na região no Domingo às 4:00. Probabilidade: 0.40</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 4:00. Probabilidade: 0.81</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em ITAPUA</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -7755,28 +7655,28 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MAMOEIRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>JOAO MORAES PESSOA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-16.297578</v>
+        <v>-16.3563583</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.9031705</v>
+        <v>-46.8904441</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alta probabilidade de EXTORSAO na região no Domingo às 5:00. Probabilidade: 0.46</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 5:00. Probabilidade: 0.80</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -7800,28 +7700,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SANTA CLARA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>LEAO ROCHA</t>
+          <t>SANTA LUZIA</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.2889972</v>
+        <v>-16.3562869</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.9026617</v>
+        <v>-46.8920263</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de EXTORSAO na região no Domingo às 6:00. Probabilidade: 0.53</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 6:00. Probabilidade: 0.81</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA CLARA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -7845,28 +7745,28 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO DOIS</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AGUAS MARINHAS</t>
+          <t>LIRIOS</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-16.3731448</v>
+        <v>-16.3689007</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.900479</v>
+        <v>-46.8922494</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Domingo às 7:00. Probabilidade: 0.39</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 7:00. Probabilidade: 0.83</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -7890,28 +7790,28 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ALDEIA</t>
+          <t>SANTA LUZIA</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.3550978</v>
+        <v>-16.353182</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.8999924</v>
+        <v>-46.8950884</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Domingo às 8:00. Probabilidade: 0.41</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 8:00. Probabilidade: 0.82</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -7935,28 +7835,28 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MAMOEIRO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EVA APARECIDA DA SILVA</t>
+          <t>JACANA</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.2999368</v>
+        <v>-16.3787445</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.9041868</v>
+        <v>-46.8931292</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Alta probabilidade de EXTORSAO na região no Domingo às 9:00. Probabilidade: 0.45</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 9:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -7980,28 +7880,28 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>INVÁLIDO</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ALBA GONZAGA</t>
+          <t>OLARIA</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.36506</v>
+        <v>-16.3816358</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.9039224</v>
+        <v>-46.8805207</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Domingo às 10:00. Probabilidade: 0.41</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 10:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em INVÁLIDO</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -8015,38 +7915,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MAMOEIRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>EVA APARECIDA DA SILVA</t>
+          <t>VEREADOR JOAO NARCISO</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.3017335</v>
+        <v>-16.3559675</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.9031705</v>
+        <v>-46.8964394</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de EXTORSAO na região no Domingo às 11:00. Probabilidade: 0.44</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 12:00. Probabilidade: 0.83</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -8060,38 +7960,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SANTA CLARA</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>LEAO ROCHA</t>
+          <t>FRANCISCO RODRIGUES DA SILVA</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.2889972</v>
+        <v>-16.3652095</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.9026617</v>
+        <v>-46.8917747</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de EXTORSAO na região no Domingo às 12:00. Probabilidade: 0.49</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 13:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA CLARA</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -8105,38 +8005,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ITAPUA</t>
+          <t>VALE VERDE</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>VENINA RAMOS AGUIAR</t>
+          <t>DULCE TORRES BROCHADO</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.3530837</v>
+        <v>-16.3563061</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.9020118</v>
+        <v>-46.8864879</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Domingo às 13:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 14:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em ITAPUA</t>
+          <t>Patrulhamento preventivo em VALE VERDE</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -8150,38 +8050,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MAMOEIRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>JONAS DE SOUZA PORTO</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-16.2999368</v>
+        <v>-16.3562869</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.9018028</v>
+        <v>-46.8911584</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de EXTORSAO na região no Domingo às 14:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 15:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -8195,38 +8095,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>SANTOS DUMONT</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.3569267</v>
+        <v>-16.3715711</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.9039224</v>
+        <v>-46.8939396</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Domingo às 15:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 16:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -8240,38 +8140,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>PRINCESA ISABEL</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-16.3554598</v>
+        <v>-16.3654531</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.901516</v>
+        <v>-46.8936593</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Domingo às 16:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 17:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -8285,38 +8185,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>18:20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MAMOEIRO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>JOAO MORAES PESSOA</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.2999368</v>
+        <v>-16.3498958</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.9041868</v>
+        <v>-46.8881753</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Domingo às 17:00. Probabilidade: 0.41</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 18:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -8330,38 +8230,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BARROCA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PRESIDENTE CASTELO BRANCO</t>
+          <t>FREI CECILIO</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.3701057</v>
+        <v>-16.3508201</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.9017296</v>
+        <v>-46.8937224</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ESTUPRO DE VULNERAVEL na região no Domingo às 18:00. Probabilidade: 0.41</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 19:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em BARROCA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -8375,38 +8275,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>INVÁLIDO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>VIRGILIO JUSTINIANO RIBEIRO</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.3629615</v>
+        <v>-16.3682882</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.9039224</v>
+        <v>-46.8820932</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Domingo às 19:00. Probabilidade: 0.41</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 20:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em INVÁLIDO</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -8420,38 +8320,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>NOVA DIVINÉIA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ALDEIA</t>
+          <t>PATOS DE MINAS</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.3629615</v>
+        <v>-16.3669149</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.8999924</v>
+        <v>-46.891282</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Domingo às 20:00. Probabilidade: 0.41</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 21:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CENTRO</t>
+          <t>Patrulhamento preventivo em NOVA DIVINÉIA</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -8465,38 +8365,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>22:20</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CRUZEIRO</t>
+          <t>VALE VERDE</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>FRANCISCO RODRIGUES DA SILVA</t>
+          <t>QUINTINO FIRMINO DA SILVA</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-16.3647673</v>
+        <v>-16.3558658</v>
       </c>
       <c r="H23" t="n">
-        <v>-46.8958547</v>
+        <v>-46.8874943</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Alta probabilidade de ROUBO na região no Domingo às 21:00. Probabilidade: 0.43</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 22:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CRUZEIRO</t>
+          <t>Patrulhamento preventivo em VALE VERDE</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -8510,86 +8410,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>22:20</t>
+          <t>23:20</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SANTA CLARA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>LEAO ROCHA</t>
+          <t>SERRA</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-16.2889972</v>
+        <v>-16.3535166</v>
       </c>
       <c r="H24" t="n">
-        <v>-46.9026617</v>
+        <v>-46.8914578</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Alta probabilidade de EXTORSAO na região no Domingo às 22:00. Probabilidade: 0.42</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 23:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA CLARA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>6</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>23:20</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>MAMOEIRO</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>JOAO MORAES PESSOA</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>-16.2999368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-46.9061331</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de ROUBO na região no Domingo às 23:00. Probabilidade: 0.43</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em MAMOEIRO</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/cartao_programa.xlsx
+++ b/cartao_programa.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,12 +431,12 @@
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="36" customWidth="1" min="6" max="6"/>
+    <col width="22.8" customWidth="1" min="5" max="5"/>
+    <col width="31.2" customWidth="1" min="6" max="6"/>
     <col width="15.6" customWidth="1" min="7" max="7"/>
-    <col width="15.6" customWidth="1" min="8" max="8"/>
+    <col width="16.8" customWidth="1" min="8" max="8"/>
     <col width="96" customWidth="1" min="9" max="9"/>
-    <col width="63.59999999999999" customWidth="1" min="10" max="10"/>
+    <col width="56.4" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -516,28 +516,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>FRANCISCO RODRIGUES DA SILVA</t>
+          <t>JOAO FRANCISCO SOUZA</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.3651047</v>
+        <v>-16.3692933</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.8927962</v>
+        <v>-46.8931292</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 0:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 0:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -561,19 +561,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.356901</v>
+        <v>-16.3701267</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.8910966</v>
+        <v>-46.8919557</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -611,18 +611,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CANABRAVA</t>
+          <t>CELINA LISBOA FREDERICO</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.3498958</v>
+        <v>-16.3544539</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.8902746</v>
+        <v>-46.8915069</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 2:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 2:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -651,19 +651,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>DOM BOSCO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CAPITAO CARLOS GONZAGA</t>
+          <t>PATOS DE MINAS</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.3523291</v>
+        <v>-16.3626015</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.89318</v>
+        <v>-46.8892362</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em DOM BOSCO</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -696,28 +696,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>PRIMAVERA CINCO</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FRANCISCO SERGIO DIAS</t>
+          <t>TAQUARIL</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.3687477</v>
+        <v>-16.3574297</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.8921586</v>
+        <v>-46.8825357</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 4:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 4:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em PRIMAVERA CINCO</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -741,28 +741,28 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>BELA VISTA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CASTRO ALVES</t>
+          <t>DOM LUSTOSA</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-16.378947</v>
+        <v>-16.3810777</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.8954761</v>
+        <v>-46.883678</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 5:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 5:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em BELA VISTA</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -786,28 +786,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO DOIS</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ARLINDO GOMES BRANQUINHO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.3724496</v>
+        <v>-16.350981</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.9003549</v>
+        <v>-46.8960999</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 6:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 6:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -831,26 +831,28 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v/>
+          <t>CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CELINA LISBOA FREDERICO</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>-16.3707763</v>
+        <v>-16.3562869</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.8960948</v>
+        <v>-46.894195</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 7:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 7:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -879,18 +881,18 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PATOS DE MINAS</t>
+          <t>PRINCESA ISABEL</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.3654531</v>
+        <v>-16.3670603</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.8922725</v>
+        <v>-46.8926257</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 8:00. Probabilidade: 0.90</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 8:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -919,19 +921,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>OLARIA</t>
+          <t>CAMELIAS</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.3539694</v>
+        <v>-16.3654765</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.8960999</v>
+        <v>-46.8922725</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -940,7 +942,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -964,19 +966,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>MIGUEL MENDES NASCIMENTO</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.3508715</v>
+        <v>-16.3599917</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.8893616</v>
+        <v>-46.8879224</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -985,7 +987,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em CANABRAVA</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1009,28 +1011,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>NOVA DIVINEIA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FREI ANSELMO</t>
+          <t>JOVINO RODRIGUES SANTANA</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.3707032</v>
+        <v>-16.3672616</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.8928437</v>
+        <v>-46.8905076</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 11:00. Probabilidade: 0.90</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 11:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em NOVA DIVINEIA</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1054,28 +1056,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA APARECIDA</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ABAETE</t>
+          <t>JARBAS DE OLIVEIRA SOUTO</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.3620327</v>
+        <v>-16.3599917</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.8904846</v>
+        <v>-46.8898961</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 12:00. Probabilidade: 0.91</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 12:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
+          <t>Patrulhamento preventivo em CANABRAVA</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1108,14 +1110,14 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.3747293</v>
+        <v>-16.3780253</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.8906148</v>
+        <v>-46.89377778</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 13:00. Probabilidade: 0.90</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 13:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1144,28 +1146,28 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>LEAO LARA</t>
+          <t>VINTE E UM DE ABRIL</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-16.3789051</v>
+        <v>-16.3550967</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.8919557</v>
+        <v>-46.8899972</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 14:00. Probabilidade: 0.90</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 14:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1179,12 +1181,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1194,18 +1196,18 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>FRANCISCO SERGIO DIAS</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.3699004</v>
+        <v>-16.3704616</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.8939328</v>
+        <v>-46.8928108</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 16:00. Probabilidade: 0.91</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 15:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1224,36 +1226,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>POLITECNICA</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v/>
+          <t>CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>DULCE TORRES BROCHADO</t>
+        </is>
       </c>
       <c r="G18" t="n">
-        <v>-16.3513455</v>
+        <v>-16.3517224</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.8830303</v>
+        <v>-46.8941417</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 17:00. Probabilidade: 0.93</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 16:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em POLITECNICA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1267,38 +1271,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>POLITECNICA</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DAS OLARIAS</t>
+          <t>JACANA</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.3500924</v>
+        <v>-16.3745162</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.8832718</v>
+        <v>-46.8952989</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 18:00. Probabilidade: 0.93</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 17:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em POLITECNICA</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1312,38 +1316,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>18:20</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>PRIMAVERA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ANTONIO BROCHADO</t>
+          <t>RORAIMA</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.3725676</v>
+        <v>-16.3647763</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.8893259</v>
+        <v>-46.8844948</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 20:00. Probabilidade: 0.94</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 18:00. Probabilidade: 0.91</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA LUZIA</t>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1357,12 +1361,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1376,14 +1380,14 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.350702</v>
+        <v>-16.3513304</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.8914578</v>
+        <v>-46.8858582</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 21:00. Probabilidade: 0.90</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 19:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1402,17 +1406,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22:20</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>INVÁLIDO</t>
+          <t>BELA VISTA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1421,19 +1425,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.3816358</v>
+        <v>-16.3810777</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.8962363</v>
+        <v>-46.8862246</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Segunda às 22:00. Probabilidade: 0.93</t>
+          <t>Alta probabilidade de FURTO na região no Segunda às 20:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em INVÁLIDO</t>
+          <t>Patrulhamento preventivo em BELA VISTA</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1447,41 +1451,131 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>CANABRAVA</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>-16.3530005</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-46.895454</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Segunda às 21:00. Probabilidade: 0.90</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22:20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>DIVINEIA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>SOUZA LIMA</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>-16.3749659</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-46.8950215</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Segunda às 22:00. Probabilidade: 0.91</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>23:00</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>23:20</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>LUIZ ALVES</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>-16.353214</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-46.8899804</v>
-      </c>
-      <c r="I23" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CAPIM BRANCO DOIS</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>SAO JOAO</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>-16.376106</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-46.9003549</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>Alta probabilidade de FURTO na região no Segunda às 23:00. Probabilidade: 0.90</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1506,12 +1600,12 @@
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="40.8" customWidth="1" min="5" max="5"/>
-    <col width="36" customWidth="1" min="6" max="6"/>
-    <col width="21.6" customWidth="1" min="7" max="7"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="42" customWidth="1" min="6" max="6"/>
+    <col width="16.8" customWidth="1" min="7" max="7"/>
     <col width="15.6" customWidth="1" min="8" max="8"/>
     <col width="93.59999999999999" customWidth="1" min="9" max="9"/>
-    <col width="74.39999999999999" customWidth="1" min="10" max="10"/>
+    <col width="54" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -1591,28 +1685,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>VALE VERDE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NOVA</t>
+          <t>DOUTOR GERALDO FURTADO DOS SANTOS</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.3561121</v>
+        <v>-16.3602649</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.894195</v>
+        <v>-46.8861373</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 0:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 0:00. Probabilidade: 0.79</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em VALE VERDE</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -1641,18 +1735,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>OLARIA</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.3520872</v>
+        <v>-16.3562869</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.8940231</v>
+        <v>-46.8950884</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 1:00. Probabilidade: 0.84</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 1:00. Probabilidade: 0.83</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1681,28 +1775,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ACUCENAS</t>
+          <t>CAPITAO CARLOS GONZAGA</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.3691097</v>
+        <v>-16.3514486</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.893842</v>
+        <v>-46.8914578</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 2:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 2:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -1726,28 +1820,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>COMPANHIA DE DISTRITO INDUSTRIAL</t>
+          <t>PRIMAVERA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>OLARIA</t>
+          <t>RORAIMA</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.3496702</v>
+        <v>-16.3608568</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.8864003</v>
+        <v>-46.8861592</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 3:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 3:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em COMPANHIA DE DISTRITO INDUSTRIAL</t>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -1771,28 +1865,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>SANTA LUZIA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FREI ANSELMO</t>
+          <t>TUCUNARE</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.370733</v>
+        <v>-16.370529</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.8938208</v>
+        <v>-46.8895017</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 4:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 4:00. Probabilidade: 0.83</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em SANTA LUZIA</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -1821,18 +1915,18 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-16.3555937</v>
+        <v>-16.3523461</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.8941417</v>
+        <v>-46.8871824</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 5:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 5:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1861,28 +1955,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>INVÁLIDO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.3816358</v>
+        <v>-16.3525156</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8839828</v>
+        <v>-46.8910966</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 6:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 6:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em INVÁLIDO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -1906,28 +2000,28 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CASTRO ALVES</t>
+          <t>CELINA LISBOA FREDERICO</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-16.3737562</v>
+        <v>-16.3531505</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.8901806</v>
+        <v>-46.8903781</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 7:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 7:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1951,28 +2045,28 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>LIRIOS</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.3672763</v>
+        <v>-16.3523461</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.8925128</v>
+        <v>-46.8914578</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 8:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 8:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -2001,14 +2095,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>RUA DJALMA TORRES</t>
+          <t>ANTONIO BROCHADO</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.3562869</v>
+        <v>-16.3552952</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.8961988</v>
+        <v>-46.8909577</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -2041,19 +2135,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>BELA VISTA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ANTONIO BROCHADO</t>
+          <t>ITAOCA</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.354695591471</v>
+        <v>-16.3810777</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.891216</v>
+        <v>-46.8836034</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -2062,7 +2156,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em BELA VISTA</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -2091,18 +2185,18 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CASTRO ALVES</t>
+          <t>DELVITO ALVES DA SILVA</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.3731939</v>
+        <v>-16.3701267</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.8971407</v>
+        <v>-46.896081</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 11:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 11:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2131,28 +2225,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>NOVO JARDIM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FRANCISCO RODRIGUES DA SILVA</t>
+          <t>DULCE TORRES BROCHADO</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.3669978</v>
+        <v>-16.36670833</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.8936593</v>
+        <v>-46.8841724</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 12:00. Probabilidade: 0.91</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 12:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em NOVO JARDIM</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -2181,14 +2275,14 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DULCE TORRES BROCHADO</t>
+          <t>NOVA REPUBLICA</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.3535028</v>
+        <v>-16.3552952</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.8947452</v>
+        <v>-46.89318</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -2221,28 +2315,28 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TUCUNARE</t>
+          <t>TRANSAMAZONICA</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-16.3725676</v>
+        <v>-16.3696973</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.8895017</v>
+        <v>-46.8935253</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 14:00. Probabilidade: 0.91</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 14:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA LUZIA</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -2266,28 +2360,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>INVÁLIDO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>CAPITAO CARLOS GONZAGA</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.38426</v>
+        <v>-16.3562869</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.8839828</v>
+        <v>-46.8880532</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 15:00. Probabilidade: 0.91</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 15:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em INVÁLIDO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -2311,19 +2405,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>PRINCESA ISABEL</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-16.3690893</v>
+        <v>-16.3675066</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.8934394</v>
+        <v>-46.8935844</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2332,7 +2426,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -2356,28 +2450,28 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>VALE VERDE</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>OLAVO FRANCISCO OLIVEIRA</t>
+          <t>CAPITAO CARLOS GONZAGA</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.356573</v>
+        <v>-16.356534</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.8844753</v>
+        <v>-46.8914578</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 17:00. Probabilidade: 0.92</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 17:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em VALE VERDE</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -2406,14 +2500,14 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CELINA LISBOA FREDERICO</t>
+          <t>VEREADOR JOAO NARCISO</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.352639</v>
+        <v>-16.3562869</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.8913573</v>
+        <v>-46.8900997</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2451,14 +2545,14 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CAPITAO CARLOS GONZAGA</t>
+          <t>DULCE TORRES BROCHADO</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.3562869</v>
+        <v>-16.3508201</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.8871824</v>
+        <v>-46.8856538</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2491,28 +2585,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA APARECIDA</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ANTONIO BROCHADO</t>
+          <t>SANTOS DUMONT</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.3622644</v>
+        <v>-16.37988889</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.8908353</v>
+        <v>-46.8937503</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 20:00. Probabilidade: 0.93</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 20:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -2536,28 +2630,28 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>PRIMAVERA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CAMELIAS</t>
+          <t>RORAIMA</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-16.3670603</v>
+        <v>-16.3624131</v>
       </c>
       <c r="H23" t="n">
-        <v>-46.8917672</v>
+        <v>-46.8834346</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 21:00. Probabilidade: 0.92</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 21:00. Probabilidade: 0.91</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -2581,28 +2675,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>BELA VISTA</t>
+          <t>PRIMAVERA CINCO</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ITAPUA</t>
+          <t>MARILIA MARTINS</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-16.3790706</v>
+        <v>-16.3569019</v>
       </c>
       <c r="H24" t="n">
-        <v>-46.8851257</v>
+        <v>-46.8825357</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 22:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 22:00. Probabilidade: 0.91</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em BELA VISTA</t>
+          <t>Patrulhamento preventivo em PRIMAVERA CINCO</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -2626,28 +2720,26 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>INVÁLIDO</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>CURITIBA</t>
-        </is>
+          <t>DIVINEIA</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v/>
       </c>
       <c r="G25" t="n">
-        <v>-16.3798658</v>
+        <v>-16.371436</v>
       </c>
       <c r="H25" t="n">
-        <v>-46.8805207</v>
+        <v>-46.889259</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Terça às 23:00. Probabilidade: 0.92</t>
+          <t>Alta probabilidade de FURTO na região no Terça às 23:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em INVÁLIDO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -2663,1174 +2755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="19.2" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="19.2" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="15.6" customWidth="1" min="5" max="5"/>
-    <col width="36" customWidth="1" min="6" max="6"/>
-    <col width="16.8" customWidth="1" min="7" max="7"/>
-    <col width="15.6" customWidth="1" min="8" max="8"/>
-    <col width="94.8" customWidth="1" min="9" max="9"/>
-    <col width="49.2" customWidth="1" min="10" max="10"/>
-    <col width="14.4" customWidth="1" min="11" max="11"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ORDEM_OCUPACAO</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DIA_SEMANA</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>HORARIO_INICIO</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>HORARIO_TERMINO</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>BAIRRO</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>LOGRADOURO</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>LATITUDE</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>LONGITUDE</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>OBJETIVO</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>MISSAO</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>OBSERVACAO</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>00:20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>LUIZ ALVES</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>-16.3498958</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-46.8914578</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 0:00. Probabilidade: 0.83</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>01:20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DIVINEIA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CASTRO ALVES</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>-16.37686111</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-46.8926462</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 1:00. Probabilidade: 0.84</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>02:20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>PRIMAVERA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>PARA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>-16.3605282</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-46.8859188</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 2:00. Probabilidade: 0.83</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em PRIMAVERA</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>03:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>03:20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>DOM BOSCO</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>PATOS DE MINAS</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>-16.3633591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-46.8891735</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 3:00. Probabilidade: 0.86</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em DOM BOSCO</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>04:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>04:20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NOVO JARDIM</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>GEOVANINA VALADARES VERSIANI</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>-16.3650863</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-46.8849008</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 4:00. Probabilidade: 0.86</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em NOVO JARDIM</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>05:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>05:20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v/>
-      </c>
-      <c r="G7" t="n">
-        <v>-16.3542222</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-46.8967878</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 5:00. Probabilidade: 0.85</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>06:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>06:20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>-16.3499812</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-46.8914578</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 6:00. Probabilidade: 0.85</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>07:20</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>VEREADOR JOAO NARCISO</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>-16.3519454</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-46.8857307</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 7:00. Probabilidade: 0.86</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>08:20</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>JARDIM</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>PATOS DE MINAS</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>-16.3654765</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-46.8922494</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 8:00. Probabilidade: 0.89</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>09:20</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>DIVINEIA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>RIO DE JANEIRO</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>-16.3708562</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-46.8901806</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 9:00. Probabilidade: 0.88</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10:20</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>CANABRAVA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>PATOS DE MINAS</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>-16.3595151</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-46.8887882</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 10:00. Probabilidade: 0.87</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em CANABRAVA</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>11:20</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>SANTA LUZIA</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>-16.3517224</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-46.891383</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 11:00. Probabilidade: 0.87</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>12:20</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VALE VERDE</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>DULCE TORRES BROCHADO</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>-16.3570556</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-46.8873763</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 12:00. Probabilidade: 0.89</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em VALE VERDE</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>13:20</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>DIVINEIA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>PREFEITO JOAO COSTA</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>-16.3780253</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-46.8906887</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 13:00. Probabilidade: 0.89</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>14:20</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>CELINA LISBOA FREDERICO</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>-16.3542222</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-46.8900997</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 14:00. Probabilidade: 0.88</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>15:20</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>PEDRO AGUIAR</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>-16.3546939</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-46.888402</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 15:00. Probabilidade: 0.88</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>16:20</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>DIVINEIA</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>CAMPOS DO JORDAO</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>-16.3787445</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-46.8930764</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 16:00. Probabilidade: 0.90</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>17:20</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>DULCE TORRES BROCHADO</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>-16.3519454</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-46.8895809</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 17:00. Probabilidade: 0.88</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>18:20</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>CANABRAVA</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>-16.3562869</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-46.895454</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 18:00. Probabilidade: 0.88</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>19:20</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>CANABRAVA</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>-16.3523461</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-46.885533</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 19:00. Probabilidade: 0.88</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>20:20</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>BELA VISTA</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>CUSTODIO MAIA</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>-16.3812023</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-46.8862246</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 20:00. Probabilidade: 0.88</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em BELA VISTA</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>21:20</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>JARDIM</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>PRINCESA ISABEL</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>-16.3689007</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-46.8917747</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 21:00. Probabilidade: 0.92</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>22:20</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>DIVINEIA</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>CAMPOS DO JORDAO</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>-16.3723486</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-46.8935253</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 22:00. Probabilidade: 0.90</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>2</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>23:20</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>JOSE LUIZ ADJUTO</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>-16.353214</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-46.8915566</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quarta às 23:00. Probabilidade: 0.88</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3843,9 +2768,9 @@
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="28.8" customWidth="1" min="6" max="6"/>
-    <col width="16.8" customWidth="1" min="7" max="7"/>
-    <col width="15.6" customWidth="1" min="8" max="8"/>
+    <col width="27.6" customWidth="1" min="6" max="6"/>
+    <col width="15.6" customWidth="1" min="7" max="7"/>
+    <col width="16.8" customWidth="1" min="8" max="8"/>
     <col width="94.8" customWidth="1" min="9" max="9"/>
     <col width="63.59999999999999" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
@@ -3913,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3927,28 +2852,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>PRIMAVERA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PEDRO AGUIAR</t>
+          <t>MANGABAS</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.3562869</v>
+        <v>-16.3607706</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.8945138</v>
+        <v>-46.8852593</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 0:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 0:00. Probabilidade: 0.81</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -3958,7 +2883,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3972,28 +2897,28 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ANTONIO BROCHADO</t>
+          <t>ABAETE</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.3512375</v>
+        <v>-16.361943</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.895032</v>
+        <v>-46.8896141</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 1:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 1:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -4003,7 +2928,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4022,18 +2947,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>QUERO QUERO</t>
+          <t>BOGOTA</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.3564944</v>
+        <v>-16.3586186</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.8871167</v>
+        <v>-46.8870552</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 2:00. Probabilidade: 0.78</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 2:00. Probabilidade: 0.80</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -4048,7 +2973,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4062,28 +2987,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FREI CECILIO</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.3544539</v>
+        <v>-16.3707763</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.8914578</v>
+        <v>-46.8955711</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 3:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 3:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -4093,7 +3018,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4107,28 +3032,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>POLITECNICA</t>
+          <t>SANTA LUZIA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>VEREADOR JOAO NARCISO</t>
+          <t>ANTONIO BROCHADO</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.3494933</v>
+        <v>-16.3725676</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.884495</v>
+        <v>-46.8893439</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 4:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 4:00. Probabilidade: 0.83</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em POLITECNICA</t>
+          <t>Patrulhamento preventivo em SANTA LUZIA</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -4138,7 +3063,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4152,28 +3077,28 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>PRINCESA ISABEL</t>
+          <t>JOAO FRANCISCO SOUZA</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-16.3689007</v>
+        <v>-16.3729984</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.8917672</v>
+        <v>-46.892262</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 5:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 5:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -4183,7 +3108,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4197,28 +3122,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA APARECIDA</t>
+          <t>BELA VISTA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>PATOS DE MINAS</t>
+          <t>ITAOCA</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.3626314</v>
+        <v>-16.3785562</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8907448</v>
+        <v>-46.8840942</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 6:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 6:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
+          <t>Patrulhamento preventivo em BELA VISTA</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -4228,7 +3153,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -4242,26 +3167,28 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NOVA DIVINEIA</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v/>
+          <t>CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>TUPIS</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>-16.36513889</v>
+        <v>-16.356901</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.8905076</v>
+        <v>-46.8941417</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 7:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 7:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOVA DIVINEIA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -4271,42 +3198,42 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>08:20</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA APARECIDA</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ANTONIO BROCHADO</t>
+          <t>JOAO FRANCISCO SOUZA</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.3603317</v>
+        <v>-16.3714695</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.8912493</v>
+        <v>-46.8919813</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 8:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 9:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -4316,42 +3243,42 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>SANTA LUZIA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>FILADELFO SOUZA PINTO</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.3528303</v>
+        <v>-16.3725676</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.8871824</v>
+        <v>-46.8874913</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 9:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 10:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em SANTA LUZIA</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -4361,42 +3288,42 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CAPITAO CARLOS GONZAGA</t>
+          <t>FRANCISCO SERGIO DIAS</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.354542</v>
+        <v>-16.3696973</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.8888683</v>
+        <v>-46.8940111</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 10:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 11:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -4406,42 +3333,42 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>INVÁLIDO</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.3679913</v>
+        <v>-16.3722637</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.8806916</v>
+        <v>-46.8902567</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 11:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 12:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em INVÁLIDO</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -4451,42 +3378,42 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CAPITAO CARLOS GONZAGA</t>
+          <t>PATOS DE MINAS</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.3540446</v>
+        <v>-16.3636056</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.886386</v>
+        <v>-46.8890823</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 12:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 13:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -4496,42 +3423,42 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>NOVA DIVINÉIA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FREI ANSELMO</t>
+          <t>PATOS DE MINAS</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.3751678</v>
+        <v>-16.3662402</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.8888532</v>
+        <v>-46.891131</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 13:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 14:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em NOVA DIVINÉIA</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -4541,16 +3468,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4558,18 +3485,20 @@
           <t>DIVINEIA</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>SANTOS DUMONT</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>-16.3737562</v>
+        <v>-16.3783495</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.8943894</v>
+        <v>-46.8939396</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 14:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 15:00. Probabilidade: 0.89</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -4584,16 +3513,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4603,18 +3532,18 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>VEREADOR JOAO NARCISO</t>
+          <t>CAICARA</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.356534</v>
+        <v>-16.3525561</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.8897568</v>
+        <v>-46.8884016</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 15:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 16:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -4629,42 +3558,42 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>PRIMAVERA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CASTRO ALVES</t>
+          <t>MANGABAS</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-16.3743031</v>
+        <v>-16.3634049</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.896081</v>
+        <v>-46.8828407</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 16:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 17:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -4674,42 +3603,42 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>18:20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>NOVO JARDIM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>LISBOA</t>
+          <t>DULCE TORRES BROCHADO</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.3746072</v>
+        <v>-16.3650863</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.8943894</v>
+        <v>-46.88211111</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 17:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 18:00. Probabilidade: 0.90</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em NOVO JARDIM</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -4719,16 +3648,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4738,18 +3667,18 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>OLARIA</t>
+          <t>DULCE TORRES BROCHADO</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.3520872</v>
+        <v>-16.350702</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.8961657</v>
+        <v>-46.8880532</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 18:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 19:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -4764,42 +3693,42 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>DOM BOSCO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PROFESSORA OLIVIA</t>
+          <t>LUIZ ALVES</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.3611248</v>
+        <v>-16.356848</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.8880712</v>
+        <v>-46.8886987</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 19:00. Probabilidade: 0.90</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 20:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DOM BOSCO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -4809,42 +3738,42 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AGUAS CLARAS</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>BENTO DIAS PEREIRA</t>
+          <t>ACACIO A REIS</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.3768505</v>
+        <v>-16.3572453</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.8946103</v>
+        <v>-46.8911584</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 20:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 21:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em AGUAS CLARAS</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -4854,16 +3783,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>22:20</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4873,18 +3802,18 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-16.3562645</v>
+        <v>-16.3544539</v>
       </c>
       <c r="H23" t="n">
-        <v>-46.8928643</v>
+        <v>-46.895032</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 21:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de FURTO na região no Quarta às 22:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -4899,8 +3828,1130 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>23:20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>DIVINEIA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LEAO LARA</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>-16.3763014</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-46.896081</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quarta às 23:00. Probabilidade: 0.90</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="19.2" customWidth="1" min="1" max="1"/>
+    <col width="14.4" customWidth="1" min="2" max="2"/>
+    <col width="19.2" customWidth="1" min="3" max="3"/>
+    <col width="20.4" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="31.2" customWidth="1" min="6" max="6"/>
+    <col width="15.6" customWidth="1" min="7" max="7"/>
+    <col width="21.6" customWidth="1" min="8" max="8"/>
+    <col width="94.8" customWidth="1" min="9" max="9"/>
+    <col width="63.59999999999999" customWidth="1" min="10" max="10"/>
+    <col width="14.4" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ORDEM_OCUPACAO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>DIA_SEMANA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>HORARIO_INICIO</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>HORARIO_TERMINO</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>BAIRRO</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>LOGRADOURO</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>LATITUDE</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>LONGITUDE</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>OBJETIVO</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>MISSAO</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>OBSERVACAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
         <v>3</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>00:20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NOSSA SENHORA APARECIDA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ANTONIO BROCHADO</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>-16.363006</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-46.8914408</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 0:00. Probabilidade: 0.82</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>01:20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>PRIMAVERA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>RORAIMA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>-16.3601415</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-46.8841685</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 1:00. Probabilidade: 0.81</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>02:20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUIZ ALVES</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>-16.3562869</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-46.8891419</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 2:00. Probabilidade: 0.83</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>03:20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PRIMAVERA</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+      <c r="G5" t="n">
+        <v>-16.3620545</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-46.8859188</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 3:00. Probabilidade: 0.83</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>04:20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>DIVINEIA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>LISBOA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>-16.3702464</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-46.8882222</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 4:00. Probabilidade: 0.84</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>05:20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SAGARANA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SERRA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>-16.3707201</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-46.8835413</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 5:00. Probabilidade: 0.83</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em SAGARANA</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>06:20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>DJALMA TORRES</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>-16.3562869</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-46.8900455</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 6:00. Probabilidade: 0.84</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>07:20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>DIVINEIA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LEAO LARA</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>-16.3748936</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-46.8887384</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 7:00. Probabilidade: 0.86</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>08:20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NOVA DIVINEIA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>JOVINO RODRIGUES SANTANA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>-16.3662402</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-46.8898279</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 8:00. Probabilidade: 0.86</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em NOVA DIVINEIA</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>09:20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>DIVINEIA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>SANTOS DUMONT</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>-16.3787445</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-46.8904168</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 9:00. Probabilidade: 0.86</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NOSSA SENHORA APARECIDA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TANCREDO NEVES</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>-16.3626314</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-46.8912493</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 10:00. Probabilidade: 0.87</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CANABRAVA</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>-16.3562869</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-46.8867717</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 11:00. Probabilidade: 0.86</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>-16.355021</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-46.8881753</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 12:00. Probabilidade: 0.86</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NOVA DIVINÉIA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>PATOS DE MINAS</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>-16.3665579</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-46.891282</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 13:00. Probabilidade: 0.88</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em NOVA DIVINÉIA</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14:20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>VEREADOR JOAO NARCISO</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>-16.3546939</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-46.8960999</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 14:00. Probabilidade: 0.87</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NOSSA SENHORA APARECIDA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ANTONIO BROCHADO</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>-16.363006</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-46.8912493</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 15:00. Probabilidade: 0.89</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>CANABRAVA</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>-16.3562869</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-46.8914578</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 16:00. Probabilidade: 0.87</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>DIVINEIA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LEAO LARA</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>-16.3769412</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-46.8955711</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 17:00. Probabilidade: 0.88</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NOSSA SENHORA APARECIDA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>MONTE CARMELO</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>-16.3592637</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-46.8924685</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 18:00. Probabilidade: 0.89</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>DIVINEIA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>CAMPOS DO JORDAO</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>-16.3688778</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-46.8960948</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 19:00. Probabilidade: 0.89</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20:20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>SANTA LUZIA</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>-16.3523421</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-46.8914578</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 20:00. Probabilidade: 0.88</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>CANABRAVA</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>-16.353416</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-46.889181733131</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Quinta às 21:00. Probabilidade: 0.88</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>22:00</t>
@@ -4913,76 +4964,31 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PRIMAVERA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>RORAIMA</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-16.36222222</v>
+        <v>-16.3551819</v>
       </c>
       <c r="H24" t="n">
-        <v>-46.8826729</v>
+        <v>-46.8955518</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 22:00. Probabilidade: 0.93</t>
+          <t>Alta probabilidade de FURTO na região no Quinta às 22:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em PRIMAVERA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>3</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>23:20</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>BELA VISTA</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>ITAOCA</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>-16.3787176</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-46.8840942</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Quinta às 23:00. Probabilidade: 0.87</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em BELA VISTA</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4995,7 +5001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5007,12 +5013,12 @@
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="26.4" customWidth="1" min="5" max="5"/>
+    <col width="36" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
     <col width="15.6" customWidth="1" min="7" max="7"/>
     <col width="15.6" customWidth="1" min="8" max="8"/>
     <col width="93.59999999999999" customWidth="1" min="9" max="9"/>
-    <col width="60" customWidth="1" min="10" max="10"/>
+    <col width="69.59999999999999" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -5092,28 +5098,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SOUZA LIMA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.3715697</v>
+        <v>-16.3576129</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.8955711</v>
+        <v>-46.8914578</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 0:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 0:00. Probabilidade: 0.81</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -5137,28 +5143,28 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>PRIMAVERA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DELVITO ALVES DA SILVA</t>
+          <t>RORAIMA</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.3723486</v>
+        <v>-16.3612573</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.8950215</v>
+        <v>-46.8840255</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 1:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 1:00. Probabilidade: 0.80</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -5182,28 +5188,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SANTOS DUMONT</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.3751398</v>
+        <v>-16.3529528</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.891731</v>
+        <v>-46.8941417</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 2:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 2:00. Probabilidade: 0.82</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -5227,28 +5233,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>SERENATA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SANTOS DUMONT</t>
+          <t>ANTONIO BROCHADO</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.3773513</v>
+        <v>-16.3685297</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.8941875</v>
+        <v>-46.8848839</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 3:00. Probabilidade: 0.84</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 3:00. Probabilidade: 0.80</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em SERENATA</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -5272,28 +5278,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PREFEITO JOAO COSTA</t>
+          <t>SEBASTIAO ALVES TEODORO</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.376113</v>
+        <v>-16.3563583</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.8876041</v>
+        <v>-46.8856538</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 4:00. Probabilidade: 0.84</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 4:00. Probabilidade: 0.83</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -5307,38 +5313,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>05:20</t>
+          <t>06:20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>POLITECNICA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CELINA LISBOA FREDERICO</t>
+          <t>VEREADOR JOAO NARCISO</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-16.3494933</v>
+        <v>-16.3508191</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.8841169</v>
+        <v>-46.8956252</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 5:00. Probabilidade: 0.84</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 6:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em POLITECNICA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -5352,38 +5358,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>06:20</t>
+          <t>07:20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CANABRAVA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FREI SUPRIANO</t>
+          <t>SANTA LUZIA</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.3595823</v>
+        <v>-16.3530918</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8887522</v>
+        <v>-46.8920263</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 6:00. Probabilidade: 0.84</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 7:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CANABRAVA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -5397,38 +5403,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>07:20</t>
+          <t>08:20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>VALE VERDE</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BENEDITO CAETANO COSTA</t>
+          <t>VEREADOR JOAO NARCISO</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-16.3568941</v>
+        <v>-16.3559675</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.8866379</v>
+        <v>-46.8884016</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 7:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 8:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em VALE VERDE</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -5442,38 +5448,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>08:20</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PATOS DE MINAS</t>
+          <t>JOSE VIEIRA MACHADO</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.3664376</v>
+        <v>-16.3613392</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.8926257</v>
+        <v>-46.8901031</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 8:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 9:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em CANABRAVA</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -5487,38 +5493,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PRIMAVERA</t>
+          <t>VALE VERDE</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>SERRA</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.3605282</v>
+        <v>-16.3577175</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.8853581</v>
+        <v>-46.8834905</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 9:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 10:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em PRIMAVERA</t>
+          <t>Patrulhamento preventivo em VALE VERDE</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -5532,38 +5538,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SOUZA LIMA</t>
+          <t>LUIZ ALVES</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.3707763</v>
+        <v>-16.3562869</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.89369</v>
+        <v>-46.8914578</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 10:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 11:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -5577,38 +5583,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>INVÁLIDO</t>
+          <t>CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO SOARES</t>
+          <t>SAO JOAO</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.3494752</v>
+        <v>-16.3724496</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.8806916</v>
+        <v>-46.8987845</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 11:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 12:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em INVÁLIDO</t>
+          <t>Patrulhamento preventivo em CAPIM BRANCO DOIS</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -5622,38 +5628,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>INVÁLIDO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CAPIM BRANCO</t>
+          <t>ANTONIO BROCHADO</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.3679913</v>
+        <v>-16.350702</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.88553</v>
+        <v>-46.8914578</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 12:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 13:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em INVÁLIDO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -5667,38 +5673,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SERRA</t>
+          <t>DELVITO ALVES DA SILVA</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.3547402</v>
+        <v>-16.3711484</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.8881753</v>
+        <v>-46.8883587</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 13:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 14:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -5712,38 +5718,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>PARQUE RESIDENCIAL CANABRAVA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FILADELFO SOUZA PINTO</t>
+          <t>LUA</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-16.3725676</v>
+        <v>-16.3544318</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.8891524</v>
+        <v>-46.8801896</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 14:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 15:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA LUZIA</t>
+          <t>Patrulhamento preventivo em PARQUE RESIDENCIAL CANABRAVA</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -5757,38 +5763,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>PARQUE RESIDENCIAL CANABRAVA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FREI ANSELMO</t>
+          <t>LUA</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.3701267</v>
+        <v>-16.35345</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.8930764</v>
+        <v>-46.8801017</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 15:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 16:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em PARQUE RESIDENCIAL CANABRAVA</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -5802,38 +5808,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>18:20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PRIMAVERA</t>
+          <t>BELA VISTA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>TINGUIZEIROS</t>
+          <t>ITAPUA</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-16.3624701</v>
+        <v>-16.3785562</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.8833808</v>
+        <v>-46.884208</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 16:00. Probabilidade: 0.91</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 18:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em PRIMAVERA</t>
+          <t>Patrulhamento preventivo em BELA VISTA</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -5847,38 +5853,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>VALE VERDE</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FREI ANSELMO</t>
+          <t>BENEDITO CAETANO COSTA</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.3690893</v>
+        <v>-16.3568941</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.8882222</v>
+        <v>-46.8844753</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 17:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 19:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em VALE VERDE</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -5892,38 +5898,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>JOAO DORIA</t>
+          <t>JOAO FRANCISCO SOUZA</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.3688774</v>
+        <v>-16.3693986</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.8873725</v>
+        <v>-46.8919813</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 18:00. Probabilidade: 0.91</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 20:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em SANTA LUZIA</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -5937,38 +5943,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>LOTEAMENTO RIO PRETO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CAPITAO CARLOS GONZAGA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.3512835</v>
+        <v>-16.3548499</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.8943109</v>
+        <v>-46.891383</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 19:00. Probabilidade: 0.90</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 21:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em LOTEAMENTO RIO PRETO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -5982,12 +5988,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>22:20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5997,18 +6003,18 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CAICARA</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.3527639</v>
+        <v>-16.3545186</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.8890279</v>
+        <v>-46.8915069</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 20:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 22:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -6027,12 +6033,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>23:20</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -6042,18 +6048,18 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>DULCE TORRES BROCHADO</t>
+          <t>ANTONIO BROCHADO</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-16.3562234</v>
+        <v>-16.353416</v>
       </c>
       <c r="H23" t="n">
-        <v>-46.8914578</v>
+        <v>-46.8955518</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 21:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de FURTO na região no Sexta às 23:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -6062,96 +6068,6 @@
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>22:20</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>VINTE E UM DE ABRIL</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>-16.3547402</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-46.89318</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 22:00. Probabilidade: 0.87</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>23:20</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>DJALMA TORRES</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>-16.3552952</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-46.8871824</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Sexta às 23:00. Probabilidade: 0.87</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6179,7 +6095,7 @@
     <col width="30" customWidth="1" min="5" max="5"/>
     <col width="36" customWidth="1" min="6" max="6"/>
     <col width="16.8" customWidth="1" min="7" max="7"/>
-    <col width="16.8" customWidth="1" min="8" max="8"/>
+    <col width="15.6" customWidth="1" min="8" max="8"/>
     <col width="94.8" customWidth="1" min="9" max="9"/>
     <col width="63.59999999999999" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
@@ -6261,28 +6177,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PRIMAVERA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>SANTA LUZIA</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.359545</v>
+        <v>-16.3525561</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.88327778</v>
+        <v>-46.888402</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 0:00. Probabilidade: 0.75</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 0:00. Probabilidade: 0.80</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em PRIMAVERA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -6306,28 +6222,28 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PRIMAVERA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PARA</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.3608802</v>
+        <v>-16.352639</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.8868478</v>
+        <v>-46.885533</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 1:00. Probabilidade: 0.76</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 1:00. Probabilidade: 0.81</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em PRIMAVERA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -6356,18 +6272,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>ATAUALPA J DA CUNHA</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.35427778</v>
+        <v>-16.3535446</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.89066667</v>
+        <v>-46.8937224</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 2:00. Probabilidade: 0.80</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 2:00. Probabilidade: 0.81</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -6396,28 +6312,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>PRIMAVERA CINCO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FRANCISCO RODRIGUES DA SILVA</t>
+          <t>SAO VICENTE</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.3668739</v>
+        <v>-16.3557413</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.8917722</v>
+        <v>-46.882588</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 3:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 3:00. Probabilidade: 0.80</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em PRIMAVERA CINCO</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -6441,19 +6357,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>NOVA DIVINEIA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>HORTENCIAS</t>
+          <t>JOVINO RODRIGUES SANTANA</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.3664376</v>
+        <v>-16.36513889</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.8913709</v>
+        <v>-46.8898279</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -6462,7 +6378,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em NOVA DIVINEIA</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -6491,14 +6407,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>JOAO FRANCISCO SOUZA</t>
+          <t>CAMPOS DO JORDAO</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-16.3761781</v>
+        <v>-16.3787445</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.8921974</v>
+        <v>-46.8928108</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -6531,28 +6447,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>BELA VISTA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CAMELIAS</t>
+          <t>ARTUR ALVES</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.3657188</v>
+        <v>-16.379033</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8927962</v>
+        <v>-46.8844845</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 6:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 6:00. Probabilidade: 0.82</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em BELA VISTA</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -6576,19 +6492,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>PRIMAVERA CINCO</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CELINA LISBOA FREDERICO</t>
+          <t>DULCE TORRES BROCHADO</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-16.3519914</v>
+        <v>-16.3569019</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.8958862</v>
+        <v>-46.8808228</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -6597,7 +6513,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em PRIMAVERA CINCO</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -6621,28 +6537,28 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PRIMAVERA CINCO</t>
+          <t>NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TAQUARIL</t>
+          <t>ABAETE</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.357081</v>
+        <v>-16.3636056</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.8821471</v>
+        <v>-46.890509</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 8:00. Probabilidade: 0.84</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 8:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em PRIMAVERA CINCO</t>
+          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -6666,28 +6582,28 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AGUAS CLARAS</t>
+          <t>DOM BOSCO</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MARECHAL RONDON</t>
+          <t>BUGANVILES</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.3762943</v>
+        <v>-16.360924</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.8945581</v>
+        <v>-46.8880712</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 9:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 9:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em AGUAS CLARAS</t>
+          <t>Patrulhamento preventivo em DOM BOSCO</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -6716,14 +6632,14 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CELINA LISBOA FREDERICO</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.352639</v>
+        <v>-16.3508715</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.88619</v>
+        <v>-46.8856538</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -6756,28 +6672,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DOM BOSCO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PATOS DE MINAS</t>
+          <t>MARIA GAIA</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.3637711</v>
+        <v>-16.352588</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.8876514</v>
+        <v>-46.8946652</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 11:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 11:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DOM BOSCO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -6801,28 +6717,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DOM BOSCO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>BUGANVILES</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.3634532</v>
+        <v>-16.3498958</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.8876514</v>
+        <v>-46.8899804</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 12:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 12:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DOM BOSCO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -6846,28 +6762,28 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>POLITECNICA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>CELINA LISBOA FREDERICO</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.3737232</v>
+        <v>-16.3495427</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.8918</v>
+        <v>-46.8833117</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 13:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 13:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em POLITECNICA</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -6891,28 +6807,28 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NOVA DIVINEIA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>JOVINO RODRIGUES SANTANA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-16.36513889</v>
+        <v>-16.3542219</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.8898279</v>
+        <v>-46.8914578</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 14:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 14:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOVA DIVINEIA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -6936,28 +6852,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA APARECIDA</t>
+          <t>DOM BOSCO</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>TANCREDO NEVES</t>
+          <t>BENEDITO FELIX BARBOSA</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.3609719</v>
+        <v>-16.3634532</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.8914408</v>
+        <v>-46.8885039</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 15:00. Probabilidade: 0.89</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 15:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
+          <t>Patrulhamento preventivo em DOM BOSCO</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -6981,28 +6897,28 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>NOSSA SENHORA DO CARMO</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>LUIZ ALVES</t>
+          <t>MARIA GAIA</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-16.3516875</v>
+        <v>-16.3575398</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.89718</v>
+        <v>-46.89254</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 16:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 16:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em NOSSA SENHORA DO CARMO</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -7026,28 +6942,28 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CANABRAVA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>RAMIRO BORGES</t>
+          <t>VINTE E UM DE ABRIL</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.3591906</v>
+        <v>-16.3544539</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.8881971</v>
+        <v>-46.8917401</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 17:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 17:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CANABRAVA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -7071,28 +6987,28 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>DOM BOSCO</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>LEVINDO TORRES BROCHADO</t>
+          <t>BENEDITO FELIX BARBOSA</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.3562869</v>
+        <v>-16.3656429</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.8947452</v>
+        <v>-46.8893856</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 18:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 18:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em DOM BOSCO</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -7116,28 +7032,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>VALE VERDE</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SERRA</t>
+          <t>JARBAS DE OLIVEIRA SOUTO</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.3563654</v>
+        <v>-16.3595151</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.8870552</v>
+        <v>-46.8887522</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 19:00. Probabilidade: 0.90</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 19:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em VALE VERDE</t>
+          <t>Patrulhamento preventivo em CANABRAVA</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -7166,14 +7082,14 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>LUIZ ALVES</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.3563784</v>
+        <v>-16.3521095</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.8895809</v>
+        <v>-46.891383</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -7206,28 +7122,28 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CANABRAVA</t>
+          <t>FRANCISCO RODRIGUES DA SILVA</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-16.35572222</v>
+        <v>-16.3592637</v>
       </c>
       <c r="H23" t="n">
-        <v>-46.8927188</v>
+        <v>-46.8912493</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 21:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 21:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -7251,28 +7167,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>JARDIM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>PRINCESA ISABEL</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-16.3562869</v>
+        <v>-16.3691097</v>
       </c>
       <c r="H24" t="n">
-        <v>-46.8914578</v>
+        <v>-46.8917672</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 22:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 22:00. Probabilidade: 0.88</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em JARDIM</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -7296,28 +7212,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA DO CARMO</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>TANCREDO NEVES</t>
+          <t>SEBASTIAO ALVES TEODORO</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-16.3575125</v>
+        <v>-16.3498775</v>
       </c>
       <c r="H25" t="n">
-        <v>-46.8938891</v>
+        <v>-46.8914578</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Sábado às 23:00. Probabilidade: 0.91</t>
+          <t>Alta probabilidade de FURTO na região no Sábado às 23:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOSSA SENHORA DO CARMO</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -7333,7 +7249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7345,12 +7261,12 @@
     <col width="14.4" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="36" customWidth="1" min="6" max="6"/>
-    <col width="15.6" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="42" customWidth="1" min="6" max="6"/>
+    <col width="16.8" customWidth="1" min="7" max="7"/>
     <col width="15.6" customWidth="1" min="8" max="8"/>
     <col width="96" customWidth="1" min="9" max="9"/>
-    <col width="51.6" customWidth="1" min="10" max="10"/>
+    <col width="63.59999999999999" customWidth="1" min="10" max="10"/>
     <col width="14.4" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -7430,28 +7346,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>INVÁLIDO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CAPITAO CARLOS GONZAGA</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-16.3499812</v>
+        <v>-16.3682882</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.88619</v>
+        <v>-46.8805207</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 0:00. Probabilidade: 0.77</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 0:00. Probabilidade: 0.80</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em INVÁLIDO</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -7480,18 +7396,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>CASTRO ALVES</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-16.3696973</v>
+        <v>-16.3739648</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.8954761</v>
+        <v>-46.8876041</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 1:00. Probabilidade: 0.79</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 1:00. Probabilidade: 0.80</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -7520,28 +7436,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CASTRO ALVES</t>
+          <t>CELINA LISBOA FREDERICO</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-16.3723082</v>
+        <v>-16.3562869</v>
       </c>
       <c r="H4" t="n">
-        <v>-46.889259</v>
+        <v>-46.8871824</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 2:00. Probabilidade: 0.79</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 2:00. Probabilidade: 0.80</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -7570,18 +7486,18 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-16.356901</v>
+        <v>-16.3520424</v>
       </c>
       <c r="H5" t="n">
-        <v>-46.8948193</v>
+        <v>-46.8871824</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 3:00. Probabilidade: 0.79</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 3:00. Probabilidade: 0.80</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -7610,19 +7526,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PRINCESA ISABEL</t>
+          <t>JOSE VIEIRA MACHADO</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-16.3667723</v>
+        <v>-16.3586872</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.8913709</v>
+        <v>-46.8886659</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -7631,7 +7547,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em CANABRAVA</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -7660,18 +7576,18 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>DULCE TORRES BROCHADO</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-16.3563583</v>
+        <v>-16.3562869</v>
       </c>
       <c r="H7" t="n">
-        <v>-46.8904441</v>
+        <v>-46.8914578</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 5:00. Probabilidade: 0.80</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 5:00. Probabilidade: 0.81</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -7700,28 +7616,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>VALE VERDE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>QUINTINO FIRMINO DA SILVA</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-16.3562869</v>
+        <v>-16.3577175</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8920263</v>
+        <v>-46.8864879</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 6:00. Probabilidade: 0.81</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 6:00. Probabilidade: 0.79</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em VALE VERDE</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -7745,28 +7661,26 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>JARDIM</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>LIRIOS</t>
-        </is>
+          <t>PRIMAVERA</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v/>
       </c>
       <c r="G9" t="n">
-        <v>-16.3689007</v>
+        <v>-16.3605243</v>
       </c>
       <c r="H9" t="n">
-        <v>-46.8922494</v>
+        <v>-46.8868478</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 7:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 7:00. Probabilidade: 0.82</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -7790,28 +7704,28 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>DIVINEIA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SANTA LUZIA</t>
+          <t>DELVITO ALVES DA SILVA</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-16.353182</v>
+        <v>-16.3787445</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.8950884</v>
+        <v>-46.8926436</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 8:00. Probabilidade: 0.82</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 8:00. Probabilidade: 0.83</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -7835,19 +7749,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>JACANA</t>
+          <t>POMPEU</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-16.3787445</v>
+        <v>-16.3618514</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.8931292</v>
+        <v>-46.8899401</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -7856,7 +7770,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em NOSSA SENHORA APARECIDA</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -7880,28 +7794,28 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>INVÁLIDO</t>
+          <t>PRIMAVERA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>OLARIA</t>
+          <t>TINGUIZEIROS</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-16.3816358</v>
+        <v>-16.3634879</v>
       </c>
       <c r="H12" t="n">
-        <v>-46.8805207</v>
+        <v>-46.8834346</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 10:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 10:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em INVÁLIDO</t>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -7915,38 +7829,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>VALE VERDE</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>VEREADOR JOAO NARCISO</t>
+          <t>JOAO MENDES CORNELIO</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.3559675</v>
+        <v>-16.35705556</v>
       </c>
       <c r="H13" t="n">
-        <v>-46.8964394</v>
+        <v>-46.8861373</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 12:00. Probabilidade: 0.83</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 11:00. Probabilidade: 0.82</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em VALE VERDE</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -7960,38 +7874,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>CANABRAVA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FRANCISCO RODRIGUES DA SILVA</t>
+          <t>FREI SUPRIANO</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-16.3652095</v>
+        <v>-16.358336</v>
       </c>
       <c r="H14" t="n">
-        <v>-46.8917747</v>
+        <v>-46.8887882</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 13:00. Probabilidade: 0.87</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 12:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em CANABRAVA</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -8005,38 +7919,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>VALE VERDE</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DULCE TORRES BROCHADO</t>
+          <t>DJALMA TORRES</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-16.3563061</v>
+        <v>-16.3523291</v>
       </c>
       <c r="H15" t="n">
-        <v>-46.8864879</v>
+        <v>-46.8945138</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 14:00. Probabilidade: 0.85</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 13:00. Probabilidade: 0.83</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em VALE VERDE</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -8050,38 +7964,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CACHOEIRA</t>
+          <t>PRIMAVERA SEIS</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CANABRAVA</t>
+          <t>MARIA DE LOURDES PEREIRA DA SILVA</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-16.3562869</v>
+        <v>-16.3584268</v>
       </c>
       <c r="H16" t="n">
-        <v>-46.8911584</v>
+        <v>-46.8820825</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 15:00. Probabilidade: 0.84</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 14:00. Probabilidade: 0.85</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
+          <t>Patrulhamento preventivo em PRIMAVERA SEIS</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -8095,38 +8009,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>DIVINEIA</t>
+          <t>PRIMAVERA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SANTOS DUMONT</t>
+          <t>PITANGAS</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-16.3715711</v>
+        <v>-16.3647763</v>
       </c>
       <c r="H17" t="n">
-        <v>-46.8939396</v>
+        <v>-46.8852593</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 16:00. Probabilidade: 0.86</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 15:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em DIVINEIA</t>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -8140,38 +8054,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>JARDIM</t>
+          <t>PRIMAVERA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>PRINCESA ISABEL</t>
+          <t>CAJARANAS</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-16.3654531</v>
+        <v>-16.3612573</v>
       </c>
       <c r="H18" t="n">
-        <v>-46.8936593</v>
+        <v>-46.8844811</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 17:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 16:00. Probabilidade: 0.86</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em JARDIM</t>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -8185,12 +8099,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -8200,18 +8114,18 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>JOSE LUIZ ADJUTO</t>
+          <t>VEREADOR JOAO NARCISO</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-16.3498958</v>
+        <v>-16.3563583</v>
       </c>
       <c r="H19" t="n">
-        <v>-46.8881753</v>
+        <v>-46.8967878</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 18:00. Probabilidade: 0.84</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 17:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -8230,12 +8144,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>18:20</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -8245,18 +8159,18 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FREI CECILIO</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-16.3508201</v>
+        <v>-16.3564569</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.8937224</v>
+        <v>-46.8871824</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 19:00. Probabilidade: 0.84</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 18:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -8275,38 +8189,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>INVÁLIDO</t>
+          <t>PRIMAVERA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>RORAIMA</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-16.3682882</v>
+        <v>-16.3616052</v>
       </c>
       <c r="H21" t="n">
-        <v>-46.8820932</v>
+        <v>-46.8854967</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 20:00. Probabilidade: 0.88</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 19:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em INVÁLIDO</t>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -8320,38 +8234,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NOVA DIVINÉIA</t>
+          <t>CACHOEIRA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>PATOS DE MINAS</t>
+          <t>JOSE LUIZ ADJUTO</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-16.3669149</v>
+        <v>-16.353214</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.891282</v>
+        <v>-46.885533</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 21:00. Probabilidade: 0.90</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 20:00. Probabilidade: 0.84</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em NOVA DIVINÉIA</t>
+          <t>Patrulhamento preventivo em CACHOEIRA</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -8365,38 +8279,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22:20</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>VALE VERDE</t>
+          <t>PRIMAVERA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>QUINTINO FIRMINO DA SILVA</t>
+          <t>MANGABAS</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-16.3558658</v>
+        <v>-16.3624131</v>
       </c>
       <c r="H23" t="n">
-        <v>-46.8874943</v>
+        <v>-46.8841685</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 22:00. Probabilidade: 0.90</t>
+          <t>Alta probabilidade de FURTO na região no Domingo às 21:00. Probabilidade: 0.87</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Patrulhamento preventivo em VALE VERDE</t>
+          <t>Patrulhamento preventivo em PRIMAVERA</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -8410,41 +8324,86 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22:20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>CANABRAVA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>JOSE VIEIRA MACHADO</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>-16.3591906</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-46.8887882</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Domingo às 22:00. Probabilidade: 0.85</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em CANABRAVA</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>23:00</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>23:20</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>SERRA</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>-16.3535166</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-46.8914578</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Alta probabilidade de FURTO na região no Domingo às 23:00. Probabilidade: 0.84</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Patrulhamento preventivo em CACHOEIRA</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>DIVINEIA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>SANTOS DUMONT</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>-16.3753675</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-46.8910239</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Alta probabilidade de FURTO na região no Domingo às 23:00. Probabilidade: 0.86</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Patrulhamento preventivo em DIVINEIA</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
